--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="824" activeTab="1"/>
+    <workbookView xWindow="28960" yWindow="1800" windowWidth="28800" windowHeight="16540" tabRatio="824" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -1986,18 +1986,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -2035,11 +2023,17 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2108,6 +2102,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3012,11 +3012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324475400"/>
-        <c:axId val="360220152"/>
+        <c:axId val="302863304"/>
+        <c:axId val="302865096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324475400"/>
+        <c:axId val="302863304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3043,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360220152"/>
+        <c:crossAx val="302865096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3051,7 +3051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360220152"/>
+        <c:axId val="302865096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3084,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324475400"/>
+        <c:crossAx val="302863304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3499,11 +3499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324160264"/>
-        <c:axId val="324050600"/>
+        <c:axId val="302999656"/>
+        <c:axId val="303002744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324160264"/>
+        <c:axId val="302999656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324050600"/>
+        <c:crossAx val="303002744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324050600"/>
+        <c:axId val="303002744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +3571,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324160264"/>
+        <c:crossAx val="302999656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3967,11 +3967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="360557256"/>
-        <c:axId val="360603160"/>
+        <c:axId val="302468952"/>
+        <c:axId val="302467768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="360557256"/>
+        <c:axId val="302468952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,14 +3998,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360603160"/>
+        <c:crossAx val="302467768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="360603160"/>
+        <c:axId val="302467768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4038,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360557256"/>
+        <c:crossAx val="302468952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4516,11 +4516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324648216"/>
-        <c:axId val="324654504"/>
+        <c:axId val="302290136"/>
+        <c:axId val="302293224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324648216"/>
+        <c:axId val="302290136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4547,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324654504"/>
+        <c:crossAx val="302293224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4555,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324654504"/>
+        <c:axId val="302293224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4588,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324648216"/>
+        <c:crossAx val="302290136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5066,11 +5066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324534184"/>
-        <c:axId val="324536984"/>
+        <c:axId val="302115704"/>
+        <c:axId val="302110760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324534184"/>
+        <c:axId val="302115704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5097,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324536984"/>
+        <c:crossAx val="302110760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5105,7 +5105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324536984"/>
+        <c:axId val="302110760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,7 +5138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324534184"/>
+        <c:crossAx val="302115704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5772,17 +5772,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5791,15 +5791,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5808,15 +5808,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5891,55 +5891,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="170"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="167"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="173"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="170"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="176"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="173"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5961,35 +5961,35 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177" t="s">
+      <c r="C14" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="163">
+      <c r="C15" s="175">
         <v>41736</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="162" t="s">
         <v>58</v>
       </c>
@@ -5999,22 +5999,22 @@
         <v>3</v>
       </c>
       <c r="I15" s="162"/>
-      <c r="J15" s="166" t="s">
+      <c r="J15" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="163">
+      <c r="C16" s="175">
         <v>41781</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="162" t="s">
         <v>246</v>
       </c>
@@ -6024,116 +6024,116 @@
         <v>247</v>
       </c>
       <c r="I16" s="162"/>
-      <c r="J16" s="166" t="s">
+      <c r="J16" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="164"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
       <c r="G17" s="162"/>
       <c r="H17" s="162"/>
       <c r="I17" s="162"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="162"/>
       <c r="F18" s="162"/>
       <c r="G18" s="162"/>
       <c r="H18" s="162"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="162"/>
       <c r="F19" s="162"/>
       <c r="G19" s="162"/>
       <c r="H19" s="162"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="162"/>
       <c r="H20" s="162"/>
       <c r="I20" s="162"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="162"/>
       <c r="F21" s="162"/>
       <c r="G21" s="162"/>
       <c r="H21" s="162"/>
       <c r="I21" s="162"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="162"/>
       <c r="H22" s="162"/>
       <c r="I22" s="162"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
@@ -6327,6 +6327,72 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E3:M5"/>
+    <mergeCell ref="C10:O12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="H32:I32"/>
@@ -6339,72 +6405,6 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="E3:M5"/>
-    <mergeCell ref="C10:O12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="78" priority="1">
@@ -21073,13 +21073,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="IK3:IV4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="EJ3:EX4"/>
+    <mergeCell ref="BM3:CA4"/>
+    <mergeCell ref="CB3:CP4"/>
+    <mergeCell ref="CQ3:DE4"/>
+    <mergeCell ref="DF3:DT4"/>
+    <mergeCell ref="DU3:EI4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -21089,12 +21088,13 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:D4"/>
-    <mergeCell ref="EJ3:EX4"/>
-    <mergeCell ref="BM3:CA4"/>
-    <mergeCell ref="CB3:CP4"/>
-    <mergeCell ref="CQ3:DE4"/>
-    <mergeCell ref="DF3:DT4"/>
-    <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="IK3:IV4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="HG3:HU4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:IV6 AQ7:AQ8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -21174,7 +21174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -21190,18 +21190,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="184"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="182"/>
       <c r="AF1">
         <v>7</v>
       </c>
@@ -21210,40 +21210,40 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
-      <c r="A2" s="185"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="187"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="185"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="185"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" ht="28">
       <c r="A6" s="19" t="s">
@@ -21574,14 +21574,14 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="16">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="109">
         <f ca="1">SUM(G7:G11)</f>
         <v>368</v>
@@ -21600,92 +21600,92 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="18">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194">
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="192">
         <f>SUM(Backlog!H:H)</f>
         <v>452</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
     </row>
     <row r="16" spans="1:33" ht="15" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="178" t="s">
+      <c r="C17" s="194"/>
+      <c r="D17" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="199" t="s">
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="197" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="200"/>
+      <c r="J17" s="198"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="197"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="202"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="202"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
       <c r="B20" s="148"/>
       <c r="C20" s="154"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
       <c r="J20" s="155"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
       <c r="B21" s="148"/>
       <c r="C21" s="154"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
       <c r="J21" s="155"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
       <c r="B22" s="148"/>
       <c r="C22" s="154"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
       <c r="J22" s="155"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
@@ -21693,14 +21693,14 @@
       <c r="C23" s="154">
         <v>4</v>
       </c>
-      <c r="D23" s="180" t="s">
+      <c r="D23" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
       <c r="J23" s="155" t="s">
         <v>149</v>
       </c>
@@ -21710,14 +21710,14 @@
       <c r="C24" s="154">
         <v>5</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
       <c r="J24" s="155" t="s">
         <v>157</v>
       </c>
@@ -21725,12 +21725,12 @@
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="148"/>
       <c r="C25" s="154"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
       <c r="J25" s="155"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
@@ -21821,9 +21821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="1800" windowWidth="28800" windowHeight="16540" tabRatio="824" activeTab="2"/>
+    <workbookView xWindow="28760" yWindow="1720" windowWidth="25600" windowHeight="16060" tabRatio="824" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -1986,6 +1986,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -2022,18 +2034,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2851,6 +2851,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3012,11 +3013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302863304"/>
-        <c:axId val="302865096"/>
+        <c:axId val="353748664"/>
+        <c:axId val="353732664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302863304"/>
+        <c:axId val="353748664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3044,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302865096"/>
+        <c:crossAx val="353732664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3051,7 +3052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302865096"/>
+        <c:axId val="353732664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,13 +3085,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302863304"/>
+        <c:crossAx val="353748664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3176,6 +3178,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3499,11 +3502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302999656"/>
-        <c:axId val="303002744"/>
+        <c:axId val="317432248"/>
+        <c:axId val="317435432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302999656"/>
+        <c:axId val="317432248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3533,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303002744"/>
+        <c:crossAx val="317435432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303002744"/>
+        <c:axId val="317435432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,13 +3574,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302999656"/>
+        <c:crossAx val="317432248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3663,6 +3667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3967,11 +3972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302468952"/>
-        <c:axId val="302467768"/>
+        <c:axId val="317501224"/>
+        <c:axId val="317504376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="302468952"/>
+        <c:axId val="317501224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3998,14 +4003,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302467768"/>
+        <c:crossAx val="317504376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302467768"/>
+        <c:axId val="317504376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,13 +4043,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302468952"/>
+        <c:crossAx val="317501224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4130,6 +4136,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4516,11 +4523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302290136"/>
-        <c:axId val="302293224"/>
+        <c:axId val="354084904"/>
+        <c:axId val="354088088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302290136"/>
+        <c:axId val="354084904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4554,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302293224"/>
+        <c:crossAx val="354088088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4555,7 +4562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302293224"/>
+        <c:axId val="354088088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,13 +4595,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302290136"/>
+        <c:crossAx val="354084904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4680,6 +4688,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4769,61 +4778,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>62.0</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.73684210526316</c:v>
+                  <c:v>59.68421052631579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.47368421052632</c:v>
+                  <c:v>56.36842105263158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.21052631578947</c:v>
+                  <c:v>53.05263157894736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.94736842105263</c:v>
+                  <c:v>49.73684210526315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.68421052631579</c:v>
+                  <c:v>46.42105263157893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.42105263157894</c:v>
+                  <c:v>43.10526315789473</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.1578947368421</c:v>
+                  <c:v>39.78947368421051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.89473684210526</c:v>
+                  <c:v>36.4736842105263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.63157894736842</c:v>
+                  <c:v>33.15789473684209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.36842105263158</c:v>
+                  <c:v>29.84210526315788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.10526315789473</c:v>
+                  <c:v>26.52631578947366</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.84210526315789</c:v>
+                  <c:v>23.21052631578945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.57894736842105</c:v>
+                  <c:v>19.89473684210524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.31578947368421</c:v>
+                  <c:v>16.57894736842103</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.05263157894736</c:v>
+                  <c:v>13.26315789473682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.78947368421052</c:v>
+                  <c:v>9.947368421052605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.526315789473677</c:v>
+                  <c:v>6.631578947368394</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.263157894736836</c:v>
+                  <c:v>3.315789473684184</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.0</c:v>
@@ -5066,11 +5075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302115704"/>
-        <c:axId val="302110760"/>
+        <c:axId val="317673448"/>
+        <c:axId val="317676632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302115704"/>
+        <c:axId val="317673448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5106,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302110760"/>
+        <c:crossAx val="317676632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5105,7 +5114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302110760"/>
+        <c:axId val="317676632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,13 +5147,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302115704"/>
+        <c:crossAx val="317673448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5772,17 +5782,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="167" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5791,15 +5801,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5808,15 +5818,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5891,55 +5901,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="167"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="170"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="173"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="176"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5961,35 +5971,35 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174" t="s">
+      <c r="C14" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174" t="s">
+      <c r="I14" s="177"/>
+      <c r="J14" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="174"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="175">
+      <c r="C15" s="163">
         <v>41736</v>
       </c>
-      <c r="D15" s="176"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="162" t="s">
         <v>58</v>
       </c>
@@ -5999,22 +6009,22 @@
         <v>3</v>
       </c>
       <c r="I15" s="162"/>
-      <c r="J15" s="163" t="s">
+      <c r="J15" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="175">
+      <c r="C16" s="163">
         <v>41781</v>
       </c>
-      <c r="D16" s="176"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="162" t="s">
         <v>246</v>
       </c>
@@ -6024,116 +6034,116 @@
         <v>247</v>
       </c>
       <c r="I16" s="162"/>
-      <c r="J16" s="163" t="s">
+      <c r="J16" s="166" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="162"/>
       <c r="F17" s="162"/>
       <c r="G17" s="162"/>
       <c r="H17" s="162"/>
       <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="162"/>
       <c r="F18" s="162"/>
       <c r="G18" s="162"/>
       <c r="H18" s="162"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="162"/>
       <c r="F19" s="162"/>
       <c r="G19" s="162"/>
       <c r="H19" s="162"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="162"/>
       <c r="H20" s="162"/>
       <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="162"/>
       <c r="F21" s="162"/>
       <c r="G21" s="162"/>
       <c r="H21" s="162"/>
       <c r="I21" s="162"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="162"/>
       <c r="H22" s="162"/>
       <c r="I22" s="162"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
@@ -6327,38 +6337,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E3:M5"/>
-    <mergeCell ref="C10:O12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:O26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:I24"/>
@@ -6373,38 +6383,38 @@
     <mergeCell ref="J18:O18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="E3:M5"/>
+    <mergeCell ref="C10:O12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="78" priority="1">
@@ -6431,7 +6441,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7347,7 +7357,7 @@
       <c r="C4" s="209"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>10</v>
@@ -7357,7 +7367,7 @@
       </c>
       <c r="G4" s="63">
         <f ca="1">SUM(G7:G42)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="25">
         <f>H3</f>
@@ -7672,79 +7682,79 @@
       </c>
       <c r="H5" s="156">
         <f ca="1">G4</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="157">
         <f ca="1">IF(I2,H5-$H$5/$F$2,"")</f>
-        <v>58.736842105263158</v>
+        <v>59.684210526315788</v>
       </c>
       <c r="J5" s="157">
         <f t="shared" ref="J5:BU5" ca="1" si="5">IF(J2,I5-$H$5/$F$2,"")</f>
-        <v>55.473684210526315</v>
+        <v>56.368421052631575</v>
       </c>
       <c r="K5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>52.210526315789473</v>
+        <v>53.052631578947363</v>
       </c>
       <c r="L5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>48.94736842105263</v>
+        <v>49.73684210526315</v>
       </c>
       <c r="M5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>45.684210526315788</v>
+        <v>46.421052631578938</v>
       </c>
       <c r="N5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>42.421052631578945</v>
+        <v>43.105263157894726</v>
       </c>
       <c r="O5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>39.157894736842103</v>
+        <v>39.789473684210513</v>
       </c>
       <c r="P5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>35.89473684210526</v>
+        <v>36.473684210526301</v>
       </c>
       <c r="Q5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>32.631578947368418</v>
+        <v>33.157894736842088</v>
       </c>
       <c r="R5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>29.368421052631575</v>
+        <v>29.842105263157876</v>
       </c>
       <c r="S5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>26.105263157894733</v>
+        <v>26.526315789473664</v>
       </c>
       <c r="T5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>22.84210526315789</v>
+        <v>23.210526315789451</v>
       </c>
       <c r="U5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>19.578947368421048</v>
+        <v>19.894736842105239</v>
       </c>
       <c r="V5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>16.315789473684205</v>
+        <v>16.578947368421026</v>
       </c>
       <c r="W5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>13.052631578947363</v>
+        <v>13.263157894736816</v>
       </c>
       <c r="X5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7894736842105203</v>
+        <v>9.9473684210526052</v>
       </c>
       <c r="Y5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5263157894736779</v>
+        <v>6.6315789473683946</v>
       </c>
       <c r="Z5" s="157">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2631578947368358</v>
+        <v>3.315789473684184</v>
       </c>
       <c r="AA5" s="44" t="str">
         <f t="shared" si="5"/>
@@ -8881,11 +8891,11 @@
     <row r="12" spans="1:83">
       <c r="A12" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A12),INDEX(Backlog!$A:$M,$A12,B$5),"")</f>
-        <v>2.9.1</v>
+        <v>2.7.1</v>
       </c>
       <c r="C12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,C$5))</f>
@@ -8893,11 +8903,11 @@
       </c>
       <c r="D12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,D$5))</f>
-        <v>Import / Export</v>
+        <v>Datas Critiques</v>
       </c>
       <c r="E12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,E$5))</f>
-        <v>WS Export</v>
+        <v>Modification BDD</v>
       </c>
       <c r="F12" s="48">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,F$5))</f>
@@ -8980,7 +8990,7 @@
       <c r="BZ12" s="84"/>
       <c r="CA12" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="CB12" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -8988,25 +8998,25 @@
       </c>
       <c r="CC12" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$42:$F$151</v>
+        <v>Backlog!$F$35:$F$151</v>
       </c>
       <c r="CD12" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="CE12" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:83">
       <c r="A13" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B13" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A13),INDEX(Backlog!$A:$M,$A13,B$5),"")</f>
-        <v>2.9.2</v>
+        <v>2.7.2</v>
       </c>
       <c r="C13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,C$5))</f>
@@ -9014,11 +9024,11 @@
       </c>
       <c r="D13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,D$5))</f>
-        <v>Import / Export</v>
+        <v>Datas Critiques</v>
       </c>
       <c r="E13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,E$5))</f>
-        <v>WS Import (avec dédoublonage))</v>
+        <v>Modification "Core"</v>
       </c>
       <c r="F13" s="48">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,F$5))</f>
@@ -9026,7 +9036,7 @@
       </c>
       <c r="G13" s="66">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,G$5))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -9101,7 +9111,7 @@
       <c r="BZ13" s="84"/>
       <c r="CA13" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="CB13" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9109,7 +9119,7 @@
       </c>
       <c r="CC13" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$43:$F$151</v>
+        <v>Backlog!$F$36:$F$151</v>
       </c>
       <c r="CD13" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -9117,37 +9127,37 @@
       </c>
       <c r="CE13" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:83">
       <c r="A14" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B14" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A14),INDEX(Backlog!$A:$M,$A14,B$5),"")</f>
-        <v>3.2.3</v>
+        <v>2.7.3</v>
       </c>
       <c r="C14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,C$5))</f>
-        <v>LinkServer (LS)</v>
+        <v>BackOffice</v>
       </c>
       <c r="D14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,D$5))</f>
-        <v>IHM</v>
+        <v>Datas Critiques</v>
       </c>
       <c r="E14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,E$5))</f>
-        <v>Interface Admin GPS (V2 : polygon)</v>
+        <v>Modification IHM Creation de type</v>
       </c>
       <c r="F14" s="48">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,F$5))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="66">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,G$5))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -9222,7 +9232,7 @@
       <c r="BZ14" s="84"/>
       <c r="CA14" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CB14" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9230,45 +9240,45 @@
       </c>
       <c r="CC14" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$47:$F$151</v>
+        <v>Backlog!$F$37:$F$151</v>
       </c>
       <c r="CD14" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE14" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:83">
       <c r="A15" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B15" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A15),INDEX(Backlog!$A:$M,$A15,B$5),"")</f>
-        <v>3.3.3</v>
+        <v>2.7.4</v>
       </c>
       <c r="C15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,C$5))</f>
-        <v>LinkServer (LS)</v>
+        <v>BackOffice</v>
       </c>
       <c r="D15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,D$5))</f>
-        <v>WS Read</v>
+        <v>Datas Critiques</v>
       </c>
       <c r="E15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,E$5))</f>
-        <v>Fonction getSceneByGPSCoord / getSceneByGPSCoord  (V2 : polygon)</v>
+        <v>Modification IHM Creation de données (Rajout Warning si non remplie)</v>
       </c>
       <c r="F15" s="48">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,F$5))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" s="66">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,G$5))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -9343,7 +9353,7 @@
       <c r="BZ15" s="84"/>
       <c r="CA15" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="CB15" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9351,25 +9361,25 @@
       </c>
       <c r="CC15" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$50:$F$151</v>
+        <v>Backlog!$F$38:$F$151</v>
       </c>
       <c r="CD15" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:83">
       <c r="A16" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A16),INDEX(Backlog!$A:$M,$A16,B$5),"")</f>
-        <v>3.4.3</v>
+        <v>3.2.3</v>
       </c>
       <c r="C16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,C$5))</f>
@@ -9377,19 +9387,19 @@
       </c>
       <c r="D16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,D$5))</f>
-        <v>WS Post</v>
+        <v>IHM</v>
       </c>
       <c r="E16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,E$5))</f>
-        <v>Fonction postLinkGPSCoordScene (V2 : polygon)</v>
+        <v>Interface Admin GPS (V2 : polygon)</v>
       </c>
       <c r="F16" s="48">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,F$5))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="66">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,G$5))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -9464,7 +9474,7 @@
       <c r="BZ16" s="84"/>
       <c r="CA16" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="CB16" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9472,41 +9482,41 @@
       </c>
       <c r="CC16" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$53:$F$151</v>
+        <v>Backlog!$F$47:$F$151</v>
       </c>
       <c r="CD16" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:83">
       <c r="A17" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B17" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A17),INDEX(Backlog!$A:$M,$A17,B$5),"")</f>
-        <v>4.2.9</v>
+        <v>3.3.3</v>
       </c>
       <c r="C17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,C$5))</f>
-        <v>API Java BO</v>
+        <v>LinkServer (LS)</v>
       </c>
       <c r="D17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,D$5))</f>
-        <v>API Java BO : Read</v>
+        <v>WS Read</v>
       </c>
       <c r="E17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,E$5))</f>
-        <v>Fonction  getRecommandedSceneByUserId</v>
+        <v>Fonction getSceneByGPSCoord / getSceneByGPSCoord  (V2 : polygon)</v>
       </c>
       <c r="F17" s="48">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,F$5))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="66">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,G$5))</f>
@@ -9585,7 +9595,7 @@
       <c r="BZ17" s="84"/>
       <c r="CA17" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="CB17" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9593,41 +9603,41 @@
       </c>
       <c r="CC17" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$64:$F$151</v>
+        <v>Backlog!$F$50:$F$151</v>
       </c>
       <c r="CD17" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:83">
       <c r="A18" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B18" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A18),INDEX(Backlog!$A:$M,$A18,B$5),"")</f>
-        <v>4.2.10</v>
+        <v>3.4.3</v>
       </c>
       <c r="C18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,C$5))</f>
-        <v>API Java BO</v>
+        <v>LinkServer (LS)</v>
       </c>
       <c r="D18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,D$5))</f>
-        <v>API Java BO : Read</v>
+        <v>WS Post</v>
       </c>
       <c r="E18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,E$5))</f>
-        <v>Fonction getMediaByUserId</v>
+        <v>Fonction postLinkGPSCoordScene (V2 : polygon)</v>
       </c>
       <c r="F18" s="48">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,F$5))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="66">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,G$5))</f>
@@ -9706,7 +9716,7 @@
       <c r="BZ18" s="84"/>
       <c r="CA18" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="CB18" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9714,41 +9724,41 @@
       </c>
       <c r="CC18" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$65:$F$151</v>
+        <v>Backlog!$F$53:$F$151</v>
       </c>
       <c r="CD18" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:83">
       <c r="A19" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A19),INDEX(Backlog!$A:$M,$A19,B$5),"")</f>
-        <v>5.3.3</v>
+        <v>4.2.9</v>
       </c>
       <c r="C19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,C$5))</f>
-        <v>API Java LS</v>
+        <v>API Java BO</v>
       </c>
       <c r="D19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,D$5))</f>
-        <v>API Java LS : Post</v>
+        <v>API Java BO : Read</v>
       </c>
       <c r="E19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,E$5))</f>
-        <v>Fonction postLinkGPSCoordScene  (V2 : polygon)</v>
+        <v>Fonction  getRecommandedSceneByUserId</v>
       </c>
       <c r="F19" s="48">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,F$5))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="66">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,G$5))</f>
@@ -9827,7 +9837,7 @@
       <c r="BZ19" s="84"/>
       <c r="CA19" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="CB19" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9835,37 +9845,37 @@
       </c>
       <c r="CC19" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$73:$F$151</v>
+        <v>Backlog!$F$64:$F$151</v>
       </c>
       <c r="CD19" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:83">
       <c r="A20" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B20" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A20),INDEX(Backlog!$A:$M,$A20,B$5),"")</f>
-        <v>6.3.6</v>
+        <v>4.2.10</v>
       </c>
       <c r="C20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,C$5))</f>
-        <v>Android</v>
+        <v>API Java BO</v>
       </c>
       <c r="D20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,D$5))</f>
-        <v>IHM</v>
+        <v>API Java BO : Read</v>
       </c>
       <c r="E20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,E$5))</f>
-        <v>Consultation Historique</v>
+        <v>Fonction getMediaByUserId</v>
       </c>
       <c r="F20" s="48">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,F$5))</f>
@@ -9873,7 +9883,7 @@
       </c>
       <c r="G20" s="66">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,G$5))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -9948,7 +9958,7 @@
       <c r="BZ20" s="84"/>
       <c r="CA20" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="CB20" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -9956,45 +9966,45 @@
       </c>
       <c r="CC20" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$93:$F$151</v>
+        <v>Backlog!$F$65:$F$151</v>
       </c>
       <c r="CD20" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="CE20" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:83">
       <c r="A21" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B21" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A21),INDEX(Backlog!$A:$M,$A21,B$5),"")</f>
-        <v>6.3.7</v>
+        <v>5.3.3</v>
       </c>
       <c r="C21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,C$5))</f>
-        <v>Android</v>
+        <v>API Java LS</v>
       </c>
       <c r="D21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,D$5))</f>
-        <v>IHM</v>
+        <v>API Java LS : Post</v>
       </c>
       <c r="E21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,E$5))</f>
-        <v>Consulation Recommandations</v>
+        <v>Fonction postLinkGPSCoordScene  (V2 : polygon)</v>
       </c>
       <c r="F21" s="48">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,F$5))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="66">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,G$5))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -10069,7 +10079,7 @@
       <c r="BZ21" s="84"/>
       <c r="CA21" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="CB21" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10077,29 +10087,29 @@
       </c>
       <c r="CC21" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$94:$F$151</v>
+        <v>Backlog!$F$73:$F$151</v>
       </c>
       <c r="CD21" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CE21" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:83">
       <c r="A22" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B22" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A22),INDEX(Backlog!$A:$M,$A22,B$5),"")</f>
-        <v>7.3.4</v>
+        <v>6.3.6</v>
       </c>
       <c r="C22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,C$5))</f>
-        <v>Android Admin</v>
+        <v>Android</v>
       </c>
       <c r="D22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,D$5))</f>
@@ -10107,15 +10117,15 @@
       </c>
       <c r="E22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,E$5))</f>
-        <v>Lier un Point GPS à une scène (V2 : polygon)</v>
+        <v>Consultation Historique</v>
       </c>
       <c r="F22" s="48">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,F$5))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="66">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,G$5))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -10190,7 +10200,7 @@
       <c r="BZ22" s="84"/>
       <c r="CA22" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="CB22" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10198,29 +10208,29 @@
       </c>
       <c r="CC22" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$111:$F$151</v>
+        <v>Backlog!$F$93:$F$151</v>
       </c>
       <c r="CD22" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE22" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:83">
       <c r="A23" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B23" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A23),INDEX(Backlog!$A:$M,$A23,B$5),"")</f>
-        <v>7.3.5</v>
+        <v>6.3.7</v>
       </c>
       <c r="C23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,C$5))</f>
-        <v>Android Admin</v>
+        <v>Android</v>
       </c>
       <c r="D23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,D$5))</f>
@@ -10228,7 +10238,7 @@
       </c>
       <c r="E23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,E$5))</f>
-        <v>Consulter historique Contribution</v>
+        <v>Consulation Recommandations</v>
       </c>
       <c r="F23" s="48">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,F$5))</f>
@@ -10311,7 +10321,7 @@
       <c r="BZ23" s="84"/>
       <c r="CA23" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="CB23" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10319,7 +10329,7 @@
       </c>
       <c r="CC23" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$112:$F$151</v>
+        <v>Backlog!$F$94:$F$151</v>
       </c>
       <c r="CD23" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -10327,37 +10337,37 @@
       </c>
       <c r="CE23" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:83">
       <c r="A24" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B24" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A24),INDEX(Backlog!$A:$M,$A24,B$5),"")</f>
-        <v>8.1.4</v>
+        <v>7.3.4</v>
       </c>
       <c r="C24" s="73" t="str">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,C$5))</f>
-        <v>Contrôle &amp; Tests</v>
+        <v>Android Admin</v>
       </c>
       <c r="D24" s="73" t="str">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,D$5))</f>
-        <v>Retours sur itération précédente</v>
+        <v>IHM</v>
       </c>
       <c r="E24" s="73" t="str">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,E$5))</f>
-        <v>Retours sur itération 4</v>
+        <v>Lier un Point GPS à une scène (V2 : polygon)</v>
       </c>
       <c r="F24" s="48">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,F$5))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G24" s="66">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,G$5))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
@@ -10432,7 +10442,7 @@
       <c r="BZ24" s="84"/>
       <c r="CA24" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="CB24" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10440,41 +10450,41 @@
       </c>
       <c r="CC24" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$116:$F$151</v>
+        <v>Backlog!$F$111:$F$151</v>
       </c>
       <c r="CD24" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="CE24" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:83">
       <c r="A25" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B25" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A25),INDEX(Backlog!$A:$M,$A25,B$5),"")</f>
-        <v>8.2.5</v>
+        <v>7.3.5</v>
       </c>
       <c r="C25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,C$5))</f>
-        <v>Contrôle &amp; Tests</v>
+        <v>Android Admin</v>
       </c>
       <c r="D25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,D$5))</f>
-        <v>Tests Fonctionnels</v>
+        <v>IHM</v>
       </c>
       <c r="E25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,E$5))</f>
-        <v>Tests Fonctionnels itération 5</v>
+        <v>Consulter historique Contribution</v>
       </c>
       <c r="F25" s="48">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,F$5))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25" s="66">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,G$5))</f>
@@ -10553,7 +10563,7 @@
       <c r="BZ25" s="84"/>
       <c r="CA25" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="CB25" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10561,25 +10571,25 @@
       </c>
       <c r="CC25" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$122:$F$151</v>
+        <v>Backlog!$F$112:$F$151</v>
       </c>
       <c r="CD25" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CE25" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:83">
       <c r="A26" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B26" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A26),INDEX(Backlog!$A:$M,$A26,B$5),"")</f>
-        <v>8.3.5</v>
+        <v>8.1.4</v>
       </c>
       <c r="C26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,C$5))</f>
@@ -10587,19 +10597,19 @@
       </c>
       <c r="D26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,D$5))</f>
-        <v>Livraison &amp; Packaging</v>
+        <v>Retours sur itération précédente</v>
       </c>
       <c r="E26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,E$5))</f>
-        <v>Livraison &amp; Packaging itération 5</v>
+        <v>Retours sur itération 4</v>
       </c>
       <c r="F26" s="48">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,F$5))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="66">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,G$5))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -10674,7 +10684,7 @@
       <c r="BZ26" s="84"/>
       <c r="CA26" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="CB26" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10682,41 +10692,41 @@
       </c>
       <c r="CC26" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$127:$F$151</v>
+        <v>Backlog!$F$116:$F$151</v>
       </c>
       <c r="CD26" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE26" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:83">
       <c r="A27" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B27" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A27),INDEX(Backlog!$A:$M,$A27,B$5),"")</f>
-        <v>10.1.5</v>
+        <v>8.2.5</v>
       </c>
       <c r="C27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,C$5))</f>
-        <v>Gestion de projet</v>
+        <v>Contrôle &amp; Tests</v>
       </c>
       <c r="D27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,D$5))</f>
-        <v>Réunions</v>
+        <v>Tests Fonctionnels</v>
       </c>
       <c r="E27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,E$5))</f>
-        <v>Réunions itération 5</v>
+        <v>Tests Fonctionnels itération 5</v>
       </c>
       <c r="F27" s="48">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,F$5))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="66">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,G$5))</f>
@@ -10795,7 +10805,7 @@
       <c r="BZ27" s="84"/>
       <c r="CA27" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="CB27" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10803,45 +10813,45 @@
       </c>
       <c r="CC27" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$142:$F$151</v>
+        <v>Backlog!$F$122:$F$151</v>
       </c>
       <c r="CD27" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="CE27" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:83">
       <c r="A28" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B28" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A28),INDEX(Backlog!$A:$M,$A28,B$5),"")</f>
-        <v>10.2.5</v>
+        <v>8.3.5</v>
       </c>
       <c r="C28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,C$5))</f>
-        <v>Gestion de projet</v>
+        <v>Contrôle &amp; Tests</v>
       </c>
       <c r="D28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,D$5))</f>
-        <v>Backlog</v>
+        <v>Livraison &amp; Packaging</v>
       </c>
       <c r="E28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,E$5))</f>
-        <v>Mise à jour Backlog itération 5</v>
+        <v>Livraison &amp; Packaging itération 5</v>
       </c>
       <c r="F28" s="48">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,F$5))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="66">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,G$5))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -10916,7 +10926,7 @@
       <c r="BZ28" s="84"/>
       <c r="CA28" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="CB28" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -10924,7 +10934,7 @@
       </c>
       <c r="CC28" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$147:$F$151</v>
+        <v>Backlog!$F$127:$F$151</v>
       </c>
       <c r="CD28" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -10932,29 +10942,29 @@
       </c>
       <c r="CE28" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:83">
       <c r="A29" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B29" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A29),INDEX(Backlog!$A:$M,$A29,B$5),"")</f>
-        <v>11.1.5</v>
+        <v>10.1.5</v>
       </c>
       <c r="C29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,C$5))</f>
-        <v>Documentation</v>
+        <v>Gestion de projet</v>
       </c>
       <c r="D29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,D$5))</f>
-        <v>Documentation</v>
+        <v>Réunions</v>
       </c>
       <c r="E29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,E$5))</f>
-        <v>Documentation itération 5</v>
+        <v>Réunions itération 5</v>
       </c>
       <c r="F29" s="48">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,F$5))</f>
@@ -10962,7 +10972,7 @@
       </c>
       <c r="G29" s="66">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,G$5))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -11037,7 +11047,7 @@
       <c r="BZ29" s="84"/>
       <c r="CA29" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="CB29" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11045,45 +11055,45 @@
       </c>
       <c r="CC29" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$152:$F$151</v>
+        <v>Backlog!$F$142:$F$151</v>
       </c>
       <c r="CD29" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CE29" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:83">
       <c r="A30" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>152</v>
-      </c>
-      <c r="B30" s="18">
+        <v>146</v>
+      </c>
+      <c r="B30" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A30),INDEX(Backlog!$A:$M,$A30,B$5),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="73">
+        <v>10.2.5</v>
+      </c>
+      <c r="C30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="73">
+        <v>Gestion de projet</v>
+      </c>
+      <c r="D30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="73">
+        <v>Backlog</v>
+      </c>
+      <c r="E30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,E$5))</f>
-        <v>0</v>
+        <v>Mise à jour Backlog itération 5</v>
       </c>
       <c r="F30" s="48">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,F$5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="66">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,G$5))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -11158,7 +11168,7 @@
       <c r="BZ30" s="84"/>
       <c r="CA30" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="CB30" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11166,45 +11176,45 @@
       </c>
       <c r="CC30" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$153:$F$151</v>
+        <v>Backlog!$F$147:$F$151</v>
       </c>
       <c r="CD30" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE30" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:83">
       <c r="A31" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="B31" s="18">
+        <v>151</v>
+      </c>
+      <c r="B31" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A31),INDEX(Backlog!$A:$M,$A31,B$5),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="73">
+        <v>11.1.5</v>
+      </c>
+      <c r="C31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="73">
+        <v>Documentation</v>
+      </c>
+      <c r="D31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="73">
+        <v>Documentation</v>
+      </c>
+      <c r="E31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,E$5))</f>
-        <v>0</v>
+        <v>Documentation itération 5</v>
       </c>
       <c r="F31" s="48">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,F$5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="66">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,G$5))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -11279,7 +11289,7 @@
       <c r="BZ31" s="84"/>
       <c r="CA31" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CB31" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11287,21 +11297,21 @@
       </c>
       <c r="CC31" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$154:$F$151</v>
+        <v>Backlog!$F$152:$F$151</v>
       </c>
       <c r="CD31" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE31" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:83">
       <c r="A32" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="18">
         <f ca="1">IF(ISNUMBER(A32),INDEX(Backlog!$A:$M,$A32,B$5),"")</f>
@@ -11400,7 +11410,7 @@
       <c r="BZ32" s="84"/>
       <c r="CA32" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="CB32" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11408,7 +11418,7 @@
       </c>
       <c r="CC32" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$155:$F$151</v>
+        <v>Backlog!$F$153:$F$151</v>
       </c>
       <c r="CD32" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -11416,13 +11426,13 @@
       </c>
       <c r="CE32" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:83">
       <c r="A33" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B33" s="18">
         <f ca="1">IF(ISNUMBER(A33),INDEX(Backlog!$A:$M,$A33,B$5),"")</f>
@@ -11521,7 +11531,7 @@
       <c r="BZ33" s="84"/>
       <c r="CA33" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="CB33" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11529,7 +11539,7 @@
       </c>
       <c r="CC33" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$156:$F$151</v>
+        <v>Backlog!$F$154:$F$151</v>
       </c>
       <c r="CD33" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -11537,13 +11547,13 @@
       </c>
       <c r="CE33" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:83">
       <c r="A34" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B34" s="18">
         <f ca="1">IF(ISNUMBER(A34),INDEX(Backlog!$A:$M,$A34,B$5),"")</f>
@@ -11642,7 +11652,7 @@
       <c r="BZ34" s="84"/>
       <c r="CA34" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CB34" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11650,7 +11660,7 @@
       </c>
       <c r="CC34" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$157:$F$151</v>
+        <v>Backlog!$F$155:$F$151</v>
       </c>
       <c r="CD34" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -11658,13 +11668,13 @@
       </c>
       <c r="CE34" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:83">
       <c r="A35" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="18">
         <f ca="1">IF(ISNUMBER(A35),INDEX(Backlog!$A:$M,$A35,B$5),"")</f>
@@ -11763,7 +11773,7 @@
       <c r="BZ35" s="84"/>
       <c r="CA35" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CB35" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11771,7 +11781,7 @@
       </c>
       <c r="CC35" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$158:$F$151</v>
+        <v>Backlog!$F$156:$F$151</v>
       </c>
       <c r="CD35" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -11779,13 +11789,13 @@
       </c>
       <c r="CE35" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:83">
       <c r="A36" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="18">
         <f ca="1">IF(ISNUMBER(A36),INDEX(Backlog!$A:$M,$A36,B$5),"")</f>
@@ -11884,7 +11894,7 @@
       <c r="BZ36" s="84"/>
       <c r="CA36" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CB36" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -11892,7 +11902,7 @@
       </c>
       <c r="CC36" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$159:$F$151</v>
+        <v>Backlog!$F$157:$F$151</v>
       </c>
       <c r="CD36" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -11900,13 +11910,13 @@
       </c>
       <c r="CE36" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:83">
       <c r="A37" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B37" s="18">
         <f ca="1">IF(ISNUMBER(A37),INDEX(Backlog!$A:$M,$A37,B$5),"")</f>
@@ -12005,7 +12015,7 @@
       <c r="BZ37" s="84"/>
       <c r="CA37" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CB37" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12013,7 +12023,7 @@
       </c>
       <c r="CC37" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$160:$F$151</v>
+        <v>Backlog!$F$158:$F$151</v>
       </c>
       <c r="CD37" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12021,13 +12031,13 @@
       </c>
       <c r="CE37" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:83">
       <c r="A38" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="18">
         <f ca="1">IF(ISNUMBER(A38),INDEX(Backlog!$A:$M,$A38,B$5),"")</f>
@@ -12126,7 +12136,7 @@
       <c r="BZ38" s="84"/>
       <c r="CA38" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CB38" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12134,7 +12144,7 @@
       </c>
       <c r="CC38" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$161:$F$151</v>
+        <v>Backlog!$F$159:$F$151</v>
       </c>
       <c r="CD38" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12142,13 +12152,13 @@
       </c>
       <c r="CE38" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:83">
       <c r="A39" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B39" s="18">
         <f ca="1">IF(ISNUMBER(A39),INDEX(Backlog!$A:$M,$A39,B$5),"")</f>
@@ -12247,7 +12257,7 @@
       <c r="BZ39" s="84"/>
       <c r="CA39" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="CB39" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12255,7 +12265,7 @@
       </c>
       <c r="CC39" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$162:$F$151</v>
+        <v>Backlog!$F$160:$F$151</v>
       </c>
       <c r="CD39" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12263,13 +12273,13 @@
       </c>
       <c r="CE39" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:83">
       <c r="A40" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B40" s="18">
         <f ca="1">IF(ISNUMBER(A40),INDEX(Backlog!$A:$M,$A40,B$5),"")</f>
@@ -12368,7 +12378,7 @@
       <c r="BZ40" s="84"/>
       <c r="CA40" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="CB40" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12376,7 +12386,7 @@
       </c>
       <c r="CC40" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$163:$F$151</v>
+        <v>Backlog!$F$161:$F$151</v>
       </c>
       <c r="CD40" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12384,13 +12394,13 @@
       </c>
       <c r="CE40" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:83">
       <c r="A41" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B41" s="18">
         <f ca="1">IF(ISNUMBER(A41),INDEX(Backlog!$A:$M,$A41,B$5),"")</f>
@@ -12489,7 +12499,7 @@
       <c r="BZ41" s="84"/>
       <c r="CA41" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="CB41" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12497,7 +12507,7 @@
       </c>
       <c r="CC41" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$164:$F$151</v>
+        <v>Backlog!$F$162:$F$151</v>
       </c>
       <c r="CD41" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12505,13 +12515,13 @@
       </c>
       <c r="CE41" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:83">
       <c r="A42" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42" s="18">
         <f ca="1">IF(ISNUMBER(A42),INDEX(Backlog!$A:$M,$A42,B$5),"")</f>
@@ -12610,7 +12620,7 @@
       <c r="BZ42" s="84"/>
       <c r="CA42" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="CB42" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -12618,7 +12628,7 @@
       </c>
       <c r="CC42" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$165:$F$151</v>
+        <v>Backlog!$F$163:$F$151</v>
       </c>
       <c r="CD42" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -12626,7 +12636,7 @@
       </c>
       <c r="CE42" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:83">
@@ -21073,12 +21083,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="EJ3:EX4"/>
-    <mergeCell ref="BM3:CA4"/>
-    <mergeCell ref="CB3:CP4"/>
-    <mergeCell ref="CQ3:DE4"/>
-    <mergeCell ref="DF3:DT4"/>
-    <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="IK3:IV4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="HG3:HU4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -21088,13 +21099,12 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:D4"/>
-    <mergeCell ref="IK3:IV4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="EJ3:EX4"/>
+    <mergeCell ref="BM3:CA4"/>
+    <mergeCell ref="CB3:CP4"/>
+    <mergeCell ref="CQ3:DE4"/>
+    <mergeCell ref="DF3:DT4"/>
+    <mergeCell ref="DU3:EI4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:IV6 AQ7:AQ8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -21538,11 +21548,11 @@
       </c>
       <c r="G11" s="15">
         <f ca="1">IF($AD11,INDIRECT($AC11 &amp; "G4"),"")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="15">
         <f ca="1">IF($AD11,INDIRECT($AC11 &amp; "D4"),"")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="15">
         <f ca="1">IF($AD11,SUM(INDIRECT(AG11)),"")</f>
@@ -21584,11 +21594,11 @@
       <c r="F12" s="179"/>
       <c r="G12" s="109">
         <f ca="1">SUM(G7:G11)</f>
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H12" s="105">
         <f ca="1">SUM(H7:H11)</f>
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I12" s="108">
         <f ca="1">SUM(I7:I11)</f>
@@ -21821,9 +21831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -23210,7 +23220,7 @@
         <v>2.7.1</v>
       </c>
       <c r="F34" s="143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="143">
         <v>8</v>
@@ -23255,7 +23265,7 @@
         <v>2.7.2</v>
       </c>
       <c r="F35" s="143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="143">
         <v>8</v>
@@ -23300,7 +23310,7 @@
         <v>2.7.3</v>
       </c>
       <c r="F36" s="143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="143">
         <v>8</v>
@@ -23345,7 +23355,7 @@
         <v>2.7.4</v>
       </c>
       <c r="F37" s="143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="143">
         <v>8</v>
@@ -23525,7 +23535,7 @@
         <v>2.9.1</v>
       </c>
       <c r="F41" s="143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" s="143">
         <v>8</v>
@@ -23570,7 +23580,7 @@
         <v>2.9.2</v>
       </c>
       <c r="F42" s="143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="143">
         <v>8</v>
@@ -29164,8 +29174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28760" yWindow="1720" windowWidth="25600" windowHeight="16060" tabRatio="824" activeTab="5"/>
+    <workbookView xWindow="29180" yWindow="-440" windowWidth="25600" windowHeight="20480" tabRatio="824" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -1994,10 +1994,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -2034,6 +2030,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3013,11 +3013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353748664"/>
-        <c:axId val="353732664"/>
+        <c:axId val="420193400"/>
+        <c:axId val="420196584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353748664"/>
+        <c:axId val="420193400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,7 +3044,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353732664"/>
+        <c:crossAx val="420196584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3052,7 +3052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353732664"/>
+        <c:axId val="420196584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3085,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353748664"/>
+        <c:crossAx val="420193400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3502,11 +3502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317432248"/>
-        <c:axId val="317435432"/>
+        <c:axId val="420412024"/>
+        <c:axId val="420415208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317432248"/>
+        <c:axId val="420412024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3533,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317435432"/>
+        <c:crossAx val="420415208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3541,7 +3541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317435432"/>
+        <c:axId val="420415208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317432248"/>
+        <c:crossAx val="420412024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3758,61 +3758,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>81.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.73684210526315</c:v>
+                  <c:v>75.7894736842105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.4736842105263</c:v>
+                  <c:v>71.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.21052631578945</c:v>
+                  <c:v>67.36842105263156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.94736842105261</c:v>
+                  <c:v>63.15789473684209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.68421052631577</c:v>
+                  <c:v>58.94736842105262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.42105263157892</c:v>
+                  <c:v>54.73684210526314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.15789473684208</c:v>
+                  <c:v>50.52631578947367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.89473684210523</c:v>
+                  <c:v>46.3157894736842</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.6315789473684</c:v>
+                  <c:v>42.10526315789473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.36842105263155</c:v>
+                  <c:v>37.89473684210525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.10526315789471</c:v>
+                  <c:v>33.68421052631578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.84210526315787</c:v>
+                  <c:v>29.47368421052631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.57894736842103</c:v>
+                  <c:v>25.26315789473684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.31578947368418</c:v>
+                  <c:v>21.05263157894736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.05263157894734</c:v>
+                  <c:v>16.84210526315789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.7894736842105</c:v>
+                  <c:v>12.63157894736842</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.526315789473657</c:v>
+                  <c:v>8.421052631578945</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.263157894736814</c:v>
+                  <c:v>4.210526315789472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,11 +3972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317501224"/>
-        <c:axId val="317504376"/>
+        <c:axId val="431071144"/>
+        <c:axId val="431074296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="317501224"/>
+        <c:axId val="431071144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4003,14 +4003,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317504376"/>
+        <c:crossAx val="431074296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="317504376"/>
+        <c:axId val="431074296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4043,7 +4043,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317501224"/>
+        <c:crossAx val="431071144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4136,7 +4136,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4523,11 +4522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354084904"/>
-        <c:axId val="354088088"/>
+        <c:axId val="431221944"/>
+        <c:axId val="431225128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="354084904"/>
+        <c:axId val="431221944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +4553,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354088088"/>
+        <c:crossAx val="431225128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4562,7 +4561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="354088088"/>
+        <c:axId val="431225128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,14 +4594,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354084904"/>
+        <c:crossAx val="431221944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4688,7 +4686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5075,11 +5072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317673448"/>
-        <c:axId val="317676632"/>
+        <c:axId val="431353768"/>
+        <c:axId val="431356952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317673448"/>
+        <c:axId val="431353768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,7 +5103,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317676632"/>
+        <c:crossAx val="431356952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5114,7 +5111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317676632"/>
+        <c:axId val="431356952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5147,14 +5144,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317673448"/>
+        <c:crossAx val="431353768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5782,17 +5778,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5801,15 +5797,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5818,15 +5814,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5901,55 +5897,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="170"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="169"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="173"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="176"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5971,27 +5967,27 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177" t="s">
+      <c r="C14" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177" t="s">
+      <c r="I14" s="176"/>
+      <c r="J14" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
@@ -6009,14 +6005,14 @@
         <v>3</v>
       </c>
       <c r="I15" s="162"/>
-      <c r="J15" s="166" t="s">
+      <c r="J15" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
@@ -6034,14 +6030,14 @@
         <v>247</v>
       </c>
       <c r="I16" s="162"/>
-      <c r="J16" s="166" t="s">
+      <c r="J16" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
@@ -6053,12 +6049,12 @@
       <c r="G17" s="162"/>
       <c r="H17" s="162"/>
       <c r="I17" s="162"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
@@ -6070,12 +6066,12 @@
       <c r="G18" s="162"/>
       <c r="H18" s="162"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
@@ -6087,12 +6083,12 @@
       <c r="G19" s="162"/>
       <c r="H19" s="162"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
@@ -6104,12 +6100,12 @@
       <c r="G20" s="162"/>
       <c r="H20" s="162"/>
       <c r="I20" s="162"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
@@ -6121,12 +6117,12 @@
       <c r="G21" s="162"/>
       <c r="H21" s="162"/>
       <c r="I21" s="162"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
@@ -6138,12 +6134,12 @@
       <c r="G22" s="162"/>
       <c r="H22" s="162"/>
       <c r="I22" s="162"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
@@ -6337,68 +6333,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E3:M5"/>
-    <mergeCell ref="C10:O12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="H20:I20"/>
@@ -6415,6 +6349,68 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E3:M5"/>
+    <mergeCell ref="C10:O12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="78" priority="1">
@@ -12908,7 +12904,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19414,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="146">
         <v>1</v>
@@ -21083,13 +21079,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="IK3:IV4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="EJ3:EX4"/>
+    <mergeCell ref="BM3:CA4"/>
+    <mergeCell ref="CB3:CP4"/>
+    <mergeCell ref="CQ3:DE4"/>
+    <mergeCell ref="DF3:DT4"/>
+    <mergeCell ref="DU3:EI4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -21099,12 +21094,13 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:D4"/>
-    <mergeCell ref="EJ3:EX4"/>
-    <mergeCell ref="BM3:CA4"/>
-    <mergeCell ref="CB3:CP4"/>
-    <mergeCell ref="CQ3:DE4"/>
-    <mergeCell ref="DF3:DT4"/>
-    <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="IK3:IV4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="HG3:HU4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:IV6 AQ7:AQ8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -21184,8 +21180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21318,7 +21314,7 @@
       </c>
       <c r="I7" s="15">
         <f ca="1">IF($AD7,SUM(INDIRECT(AG7)),"")</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="22">
         <v>0</v>
@@ -21428,11 +21424,11 @@
       </c>
       <c r="G9" s="15">
         <f ca="1">IF($AD9,INDIRECT($AC9 &amp; "G4"),"")</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="15">
         <f ca="1">IF($AD9,INDIRECT($AC9 &amp; "D4"),"")</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="15">
         <f ca="1">IF($AD9,SUM(INDIRECT(AG9)),"")</f>
@@ -21594,15 +21590,15 @@
       <c r="F12" s="179"/>
       <c r="G12" s="109">
         <f ca="1">SUM(G7:G11)</f>
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H12" s="105">
         <f ca="1">SUM(H7:H11)</f>
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I12" s="108">
         <f ca="1">SUM(I7:I11)</f>
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J12" s="110">
         <f>AVERAGE(J7:J11)</f>
@@ -21619,7 +21615,7 @@
       <c r="F14" s="191"/>
       <c r="G14" s="192">
         <f>SUM(Backlog!H:H)</f>
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H14" s="192"/>
       <c r="I14" s="192"/>
@@ -21831,9 +21827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -22416,7 +22412,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="142" t="s">
         <v>171</v>
@@ -22455,7 +22451,7 @@
         <v>1.3.2</v>
       </c>
       <c r="F17" s="143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="143">
         <v>5</v>
@@ -22551,7 +22547,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="141">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I19" s="142" t="s">
         <v>62</v>
@@ -23721,7 +23717,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" s="142" t="s">
         <v>211</v>
@@ -24660,7 +24656,7 @@
         <v>4.3.2</v>
       </c>
       <c r="F66" s="143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="143">
         <v>6</v>
@@ -25206,7 +25202,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" s="142" t="s">
         <v>74</v>
@@ -25251,7 +25247,7 @@
         <v>6</v>
       </c>
       <c r="H79" s="141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" s="142" t="s">
         <v>74</v>
@@ -29174,8 +29170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -41747,7 +41743,7 @@
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -42667,7 +42663,7 @@
       <c r="C4" s="209"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>10</v>
@@ -42677,7 +42673,7 @@
       </c>
       <c r="G4" s="63">
         <f ca="1">SUM(G7:G42)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25">
         <f>H3</f>
@@ -42992,79 +42988,79 @@
       </c>
       <c r="H5" s="124">
         <f ca="1">G4</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="82">
         <f ca="1">IF(I2,H5-$H$5/$F$2,"")</f>
-        <v>76.73684210526315</v>
+        <v>75.78947368421052</v>
       </c>
       <c r="J5" s="82">
         <f t="shared" ref="J5:BU5" ca="1" si="5">IF(J2,I5-$H$5/$F$2,"")</f>
-        <v>72.473684210526301</v>
+        <v>71.578947368421041</v>
       </c>
       <c r="K5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>68.210526315789451</v>
+        <v>67.368421052631561</v>
       </c>
       <c r="L5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>63.947368421052609</v>
+        <v>63.157894736842088</v>
       </c>
       <c r="M5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>59.684210526315766</v>
+        <v>58.947368421052616</v>
       </c>
       <c r="N5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>55.421052631578924</v>
+        <v>54.736842105263143</v>
       </c>
       <c r="O5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>51.157894736842081</v>
+        <v>50.526315789473671</v>
       </c>
       <c r="P5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>46.894736842105239</v>
+        <v>46.315789473684198</v>
       </c>
       <c r="Q5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>42.631578947368396</v>
+        <v>42.105263157894726</v>
       </c>
       <c r="R5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>38.368421052631554</v>
+        <v>37.894736842105253</v>
       </c>
       <c r="S5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>34.105263157894711</v>
+        <v>33.68421052631578</v>
       </c>
       <c r="T5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>29.842105263157869</v>
+        <v>29.473684210526308</v>
       </c>
       <c r="U5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>25.578947368421026</v>
+        <v>25.263157894736835</v>
       </c>
       <c r="V5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>21.315789473684184</v>
+        <v>21.052631578947363</v>
       </c>
       <c r="W5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>17.052631578947341</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="X5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>12.789473684210499</v>
+        <v>12.631578947368418</v>
       </c>
       <c r="Y5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5263157894736565</v>
+        <v>8.4210526315789451</v>
       </c>
       <c r="Z5" s="82">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2631578947368141</v>
+        <v>4.2105263157894717</v>
       </c>
       <c r="AA5" s="44" t="str">
         <f t="shared" si="5"/>
@@ -43620,7 +43616,7 @@
       </c>
       <c r="G7" s="66">
         <f ca="1">IF($B7="","",INDEX(Backlog!$A:$M,$A7,G$5))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -43717,31 +43713,31 @@
     <row r="8" spans="1:83" ht="26">
       <c r="A8" s="90">
         <f t="shared" ref="A8:A42" ca="1" si="10">CA8-1</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A8),INDEX(Backlog!$A:$M,$A8,B$5),"")</f>
-        <v>1.3.2</v>
+        <v>2.1.2</v>
       </c>
       <c r="C8" s="73" t="str">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,C$5))</f>
-        <v>BackOffice WebServices</v>
+        <v>BackOffice</v>
       </c>
       <c r="D8" s="73" t="str">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,D$5))</f>
-        <v>WS Post</v>
+        <v>I18n</v>
       </c>
       <c r="E8" s="73" t="str">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,E$5))</f>
-        <v>Creation de Parcours</v>
+        <v>Modification "Core"</v>
       </c>
       <c r="F8" s="48">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,F$5))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="66">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,G$5))</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -43816,7 +43812,7 @@
       <c r="BZ8" s="84"/>
       <c r="CA8" s="21">
         <f ca="1">IF($CE8="","",CE8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CB8" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -43824,25 +43820,25 @@
       </c>
       <c r="CC8" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$18:$F$151</v>
+        <v>Backlog!$F$20:$F$151</v>
       </c>
       <c r="CD8" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE8" s="21">
         <f ca="1">IF(ISNA($CD8),"",CE7+CD8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:83">
       <c r="A9" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A9),INDEX(Backlog!$A:$M,$A9,B$5),"")</f>
-        <v>2.1.2</v>
+        <v>2.2.1</v>
       </c>
       <c r="C9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,C$5))</f>
@@ -43850,11 +43846,11 @@
       </c>
       <c r="D9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,D$5))</f>
-        <v>I18n</v>
+        <v>Historique Consultation</v>
       </c>
       <c r="E9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,E$5))</f>
-        <v>Modification "Core"</v>
+        <v>Architecture BDD</v>
       </c>
       <c r="F9" s="48">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,F$5))</f>
@@ -43862,7 +43858,7 @@
       </c>
       <c r="G9" s="66">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,G$5))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -43937,7 +43933,7 @@
       <c r="BZ9" s="84"/>
       <c r="CA9" s="21">
         <f ca="1">IF($CE9="","",CE9)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CB9" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -43945,25 +43941,25 @@
       </c>
       <c r="CC9" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$20:$F$151</v>
+        <v>Backlog!$F$23:$F$151</v>
       </c>
       <c r="CD9" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE9" s="21">
         <f ca="1">IF(ISNA($CD9),"",CE8+CD9)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:83">
       <c r="A10" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A10),INDEX(Backlog!$A:$M,$A10,B$5),"")</f>
-        <v>2.2.1</v>
+        <v>2.2.2</v>
       </c>
       <c r="C10" s="73" t="str">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,C$5))</f>
@@ -43975,7 +43971,7 @@
       </c>
       <c r="E10" s="73" t="str">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,E$5))</f>
-        <v>Architecture BDD</v>
+        <v>Modification WS</v>
       </c>
       <c r="F10" s="48">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,F$5))</f>
@@ -44058,7 +44054,7 @@
       <c r="BZ10" s="84"/>
       <c r="CA10" s="21">
         <f ca="1">IF($CE10="","",CE10)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CB10" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44066,25 +44062,25 @@
       </c>
       <c r="CC10" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$23:$F$151</v>
+        <v>Backlog!$F$24:$F$151</v>
       </c>
       <c r="CD10" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE10" s="21">
         <f ca="1">IF(ISNA($CD10),"",CE9+CD10)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:83">
       <c r="A11" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A11),INDEX(Backlog!$A:$M,$A11,B$5),"")</f>
-        <v>2.2.2</v>
+        <v>2.2.3</v>
       </c>
       <c r="C11" s="73" t="str">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,C$5))</f>
@@ -44096,7 +44092,7 @@
       </c>
       <c r="E11" s="73" t="str">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,E$5))</f>
-        <v>Modification WS</v>
+        <v>Creation WS getHistoriqueByUserId (+modif WSDL)</v>
       </c>
       <c r="F11" s="48">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,F$5))</f>
@@ -44179,7 +44175,7 @@
       <c r="BZ11" s="84"/>
       <c r="CA11" s="21">
         <f t="shared" ref="CA11:CA42" ca="1" si="11">IF($CE11="","",CE11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CB11" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44187,7 +44183,7 @@
       </c>
       <c r="CC11" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$24:$F$151</v>
+        <v>Backlog!$F$25:$F$151</v>
       </c>
       <c r="CD11" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -44195,33 +44191,33 @@
       </c>
       <c r="CE11" s="21">
         <f t="shared" ref="CE11:CE42" ca="1" si="12">IF(ISNA($CD11),"",CE10+CD11)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:83">
       <c r="A12" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B12" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A12),INDEX(Backlog!$A:$M,$A12,B$5),"")</f>
-        <v>2.2.3</v>
+        <v>3.2.1</v>
       </c>
       <c r="C12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,C$5))</f>
-        <v>BackOffice</v>
+        <v>LinkServer (LS)</v>
       </c>
       <c r="D12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,D$5))</f>
-        <v>Historique Consultation</v>
+        <v>IHM</v>
       </c>
       <c r="E12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,E$5))</f>
-        <v>Creation WS getHistoriqueByUserId (+modif WSDL)</v>
+        <v>Interface Admin CRUD</v>
       </c>
       <c r="F12" s="48">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,F$5))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="66">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,G$5))</f>
@@ -44300,7 +44296,7 @@
       <c r="BZ12" s="84"/>
       <c r="CA12" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="CB12" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44308,25 +44304,25 @@
       </c>
       <c r="CC12" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$25:$F$151</v>
+        <v>Backlog!$F$45:$F$151</v>
       </c>
       <c r="CD12" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="CE12" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:83">
       <c r="A13" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A13),INDEX(Backlog!$A:$M,$A13,B$5),"")</f>
-        <v>3.2.1</v>
+        <v>3.2.2</v>
       </c>
       <c r="C13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,C$5))</f>
@@ -44338,7 +44334,7 @@
       </c>
       <c r="E13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,E$5))</f>
-        <v>Interface Admin CRUD</v>
+        <v>Interface Admin GPS (V1 : juste pts central + rayon)</v>
       </c>
       <c r="F13" s="48">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,F$5))</f>
@@ -44346,7 +44342,7 @@
       </c>
       <c r="G13" s="66">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,G$5))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -44421,7 +44417,7 @@
       <c r="BZ13" s="84"/>
       <c r="CA13" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB13" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44429,25 +44425,25 @@
       </c>
       <c r="CC13" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$45:$F$151</v>
+        <v>Backlog!$F$46:$F$151</v>
       </c>
       <c r="CD13" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="CE13" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:83">
       <c r="A14" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A14),INDEX(Backlog!$A:$M,$A14,B$5),"")</f>
-        <v>3.2.2</v>
+        <v>3.3.2</v>
       </c>
       <c r="C14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,C$5))</f>
@@ -44455,19 +44451,19 @@
       </c>
       <c r="D14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,D$5))</f>
-        <v>IHM</v>
+        <v>WS Read</v>
       </c>
       <c r="E14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,E$5))</f>
-        <v>Interface Admin GPS (V1 : juste pts central + rayon)</v>
+        <v>Fonction getSceneByGPSCoord / getSceneByGPSCoord  (V1 : juste pts central + rayon)</v>
       </c>
       <c r="F14" s="48">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,F$5))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="66">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,G$5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -44542,7 +44538,7 @@
       <c r="BZ14" s="84"/>
       <c r="CA14" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CB14" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44550,25 +44546,25 @@
       </c>
       <c r="CC14" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$46:$F$151</v>
+        <v>Backlog!$F$49:$F$151</v>
       </c>
       <c r="CD14" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE14" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:83">
       <c r="A15" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A15),INDEX(Backlog!$A:$M,$A15,B$5),"")</f>
-        <v>3.3.2</v>
+        <v>3.4.1</v>
       </c>
       <c r="C15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,C$5))</f>
@@ -44576,15 +44572,15 @@
       </c>
       <c r="D15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,D$5))</f>
-        <v>WS Read</v>
+        <v>WS Post</v>
       </c>
       <c r="E15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,E$5))</f>
-        <v>Fonction getSceneByGPSCoord / getSceneByGPSCoord  (V1 : juste pts central + rayon)</v>
+        <v>Fonction postLinkTagScene</v>
       </c>
       <c r="F15" s="48">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,F$5))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="66">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,G$5))</f>
@@ -44663,7 +44659,7 @@
       <c r="BZ15" s="84"/>
       <c r="CA15" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CB15" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44671,25 +44667,25 @@
       </c>
       <c r="CC15" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$49:$F$151</v>
+        <v>Backlog!$F$51:$F$151</v>
       </c>
       <c r="CD15" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE15" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:83">
       <c r="A16" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A16),INDEX(Backlog!$A:$M,$A16,B$5),"")</f>
-        <v>3.4.1</v>
+        <v>3.4.2</v>
       </c>
       <c r="C16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,C$5))</f>
@@ -44701,7 +44697,7 @@
       </c>
       <c r="E16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,E$5))</f>
-        <v>Fonction postLinkTagScene</v>
+        <v>Fonction postLinkGPSCoordScene (V1 : juste pts central + rayon)</v>
       </c>
       <c r="F16" s="48">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,F$5))</f>
@@ -44784,7 +44780,7 @@
       <c r="BZ16" s="84"/>
       <c r="CA16" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CB16" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44792,41 +44788,41 @@
       </c>
       <c r="CC16" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$51:$F$151</v>
+        <v>Backlog!$F$52:$F$151</v>
       </c>
       <c r="CD16" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE16" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:83">
       <c r="A17" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B17" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A17),INDEX(Backlog!$A:$M,$A17,B$5),"")</f>
-        <v>3.4.2</v>
+        <v>4.2.8</v>
       </c>
       <c r="C17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,C$5))</f>
-        <v>LinkServer (LS)</v>
+        <v>API Java BO</v>
       </c>
       <c r="D17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,D$5))</f>
-        <v>WS Post</v>
+        <v>API Java BO : Read</v>
       </c>
       <c r="E17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,E$5))</f>
-        <v>Fonction postLinkGPSCoordScene (V1 : juste pts central + rayon)</v>
+        <v>Fonction getHistoriqueByUserId</v>
       </c>
       <c r="F17" s="48">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,F$5))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="66">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,G$5))</f>
@@ -44905,7 +44901,7 @@
       <c r="BZ17" s="84"/>
       <c r="CA17" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="CB17" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -44913,25 +44909,25 @@
       </c>
       <c r="CC17" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$52:$F$151</v>
+        <v>Backlog!$F$63:$F$151</v>
       </c>
       <c r="CD17" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="CE17" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:83">
       <c r="A18" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A18),INDEX(Backlog!$A:$M,$A18,B$5),"")</f>
-        <v>4.2.8</v>
+        <v>4.3.1</v>
       </c>
       <c r="C18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,C$5))</f>
@@ -44939,19 +44935,19 @@
       </c>
       <c r="D18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,D$5))</f>
-        <v>API Java BO : Read</v>
+        <v>API Java BO : Post</v>
       </c>
       <c r="E18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,E$5))</f>
-        <v>Fonction getHistoriqueByUserId</v>
+        <v>Fonction Post Media (Lié à rien / à une scène / à une artefact)</v>
       </c>
       <c r="F18" s="48">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,F$5))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="66">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,G$5))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -45026,7 +45022,7 @@
       <c r="BZ18" s="84"/>
       <c r="CA18" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CB18" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45034,45 +45030,45 @@
       </c>
       <c r="CC18" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$63:$F$151</v>
+        <v>Backlog!$F$66:$F$151</v>
       </c>
       <c r="CD18" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="CE18" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:83">
       <c r="A19" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A19),INDEX(Backlog!$A:$M,$A19,B$5),"")</f>
-        <v>4.3.1</v>
+        <v>5.3.1</v>
       </c>
       <c r="C19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,C$5))</f>
-        <v>API Java BO</v>
+        <v>API Java LS</v>
       </c>
       <c r="D19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,D$5))</f>
-        <v>API Java BO : Post</v>
+        <v>API Java LS : Post</v>
       </c>
       <c r="E19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,E$5))</f>
-        <v>Fonction Post Media (Lié à rien / à une scène / à une artefact)</v>
+        <v>Fonction postLinkTagScene</v>
       </c>
       <c r="F19" s="48">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,F$5))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="66">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,G$5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -45147,7 +45143,7 @@
       <c r="BZ19" s="84"/>
       <c r="CA19" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CB19" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45155,45 +45151,45 @@
       </c>
       <c r="CC19" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$66:$F$151</v>
+        <v>Backlog!$F$71:$F$151</v>
       </c>
       <c r="CD19" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE19" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:83">
       <c r="A20" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B20" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A20),INDEX(Backlog!$A:$M,$A20,B$5),"")</f>
-        <v>4.3.2</v>
+        <v>5.3.2</v>
       </c>
       <c r="C20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,C$5))</f>
-        <v>API Java BO</v>
+        <v>API Java LS</v>
       </c>
       <c r="D20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,D$5))</f>
-        <v>API Java BO : Post</v>
+        <v>API Java LS : Post</v>
       </c>
       <c r="E20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,E$5))</f>
-        <v>Creation de Parcours</v>
+        <v>Fonction postLinkGPSCoordScene  (V1 : juste pts central + rayon)</v>
       </c>
       <c r="F20" s="48">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,F$5))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="66">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,G$5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -45268,7 +45264,7 @@
       <c r="BZ20" s="84"/>
       <c r="CA20" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="CB20" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45276,7 +45272,7 @@
       </c>
       <c r="CC20" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$67:$F$151</v>
+        <v>Backlog!$F$72:$F$151</v>
       </c>
       <c r="CD20" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -45284,29 +45280,29 @@
       </c>
       <c r="CE20" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:83">
       <c r="A21" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A21),INDEX(Backlog!$A:$M,$A21,B$5),"")</f>
-        <v>5.3.1</v>
+        <v>6.1.3</v>
       </c>
       <c r="C21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,C$5))</f>
-        <v>API Java LS</v>
+        <v>Android</v>
       </c>
       <c r="D21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,D$5))</f>
-        <v>API Java LS : Post</v>
+        <v>Capteurs</v>
       </c>
       <c r="E21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,E$5))</f>
-        <v>Fonction postLinkTagScene</v>
+        <v>Lire les coordonnées GPS</v>
       </c>
       <c r="F21" s="48">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,F$5))</f>
@@ -45314,7 +45310,7 @@
       </c>
       <c r="G21" s="66">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,G$5))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -45389,7 +45385,7 @@
       <c r="BZ21" s="84"/>
       <c r="CA21" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="CB21" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45397,7 +45393,7 @@
       </c>
       <c r="CC21" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$71:$F$151</v>
+        <v>Backlog!$F$76:$F$151</v>
       </c>
       <c r="CD21" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -45405,29 +45401,29 @@
       </c>
       <c r="CE21" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:83">
       <c r="A22" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B22" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A22),INDEX(Backlog!$A:$M,$A22,B$5),"")</f>
-        <v>5.3.2</v>
+        <v>6.1.4</v>
       </c>
       <c r="C22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,C$5))</f>
-        <v>API Java LS</v>
+        <v>Android</v>
       </c>
       <c r="D22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,D$5))</f>
-        <v>API Java LS : Post</v>
+        <v>Capteurs</v>
       </c>
       <c r="E22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,E$5))</f>
-        <v>Fonction postLinkGPSCoordScene  (V1 : juste pts central + rayon)</v>
+        <v>Gestion de modes</v>
       </c>
       <c r="F22" s="48">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,F$5))</f>
@@ -45435,7 +45431,7 @@
       </c>
       <c r="G22" s="66">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,G$5))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -45510,7 +45506,7 @@
       <c r="BZ22" s="84"/>
       <c r="CA22" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CB22" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45518,7 +45514,7 @@
       </c>
       <c r="CC22" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$72:$F$151</v>
+        <v>Backlog!$F$77:$F$151</v>
       </c>
       <c r="CD22" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -45526,17 +45522,17 @@
       </c>
       <c r="CE22" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:83">
       <c r="A23" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A23),INDEX(Backlog!$A:$M,$A23,B$5),"")</f>
-        <v>6.1.3</v>
+        <v>6.1.5</v>
       </c>
       <c r="C23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,C$5))</f>
@@ -45548,7 +45544,7 @@
       </c>
       <c r="E23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,E$5))</f>
-        <v>Lire les coordonnées GPS</v>
+        <v>Mode intérieur</v>
       </c>
       <c r="F23" s="48">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,F$5))</f>
@@ -45556,7 +45552,7 @@
       </c>
       <c r="G23" s="66">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,G$5))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
@@ -45631,7 +45627,7 @@
       <c r="BZ23" s="84"/>
       <c r="CA23" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CB23" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45639,25 +45635,25 @@
       </c>
       <c r="CC23" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$76:$F$151</v>
+        <v>Backlog!$F$78:$F$151</v>
       </c>
       <c r="CD23" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE23" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:83">
       <c r="A24" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A24),INDEX(Backlog!$A:$M,$A24,B$5),"")</f>
-        <v>6.1.4</v>
+        <v>6.1.6</v>
       </c>
       <c r="C24" s="73" t="str">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,C$5))</f>
@@ -45669,7 +45665,7 @@
       </c>
       <c r="E24" s="73" t="str">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,E$5))</f>
-        <v>Gestion de modes</v>
+        <v>Mode extérieur</v>
       </c>
       <c r="F24" s="48">
         <f ca="1">IF($B24="","",INDEX(Backlog!$A:$M,$A24,F$5))</f>
@@ -45752,7 +45748,7 @@
       <c r="BZ24" s="84"/>
       <c r="CA24" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CB24" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45760,7 +45756,7 @@
       </c>
       <c r="CC24" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$77:$F$151</v>
+        <v>Backlog!$F$79:$F$151</v>
       </c>
       <c r="CD24" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -45768,17 +45764,17 @@
       </c>
       <c r="CE24" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:83">
       <c r="A25" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A25),INDEX(Backlog!$A:$M,$A25,B$5),"")</f>
-        <v>6.1.5</v>
+        <v>6.1.7</v>
       </c>
       <c r="C25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,C$5))</f>
@@ -45790,15 +45786,15 @@
       </c>
       <c r="E25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,E$5))</f>
-        <v>Mode intérieur</v>
+        <v>Lire un Ibeacon</v>
       </c>
       <c r="F25" s="48">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,F$5))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="66">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,G$5))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -45873,7 +45869,7 @@
       <c r="BZ25" s="84"/>
       <c r="CA25" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="CB25" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -45881,7 +45877,7 @@
       </c>
       <c r="CC25" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$78:$F$151</v>
+        <v>Backlog!$F$80:$F$151</v>
       </c>
       <c r="CD25" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -45889,17 +45885,17 @@
       </c>
       <c r="CE25" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:83">
       <c r="A26" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B26" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A26),INDEX(Backlog!$A:$M,$A26,B$5),"")</f>
-        <v>6.1.6</v>
+        <v>6.3.5</v>
       </c>
       <c r="C26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,C$5))</f>
@@ -45907,19 +45903,19 @@
       </c>
       <c r="D26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,D$5))</f>
-        <v>Capteurs</v>
+        <v>IHM</v>
       </c>
       <c r="E26" s="73" t="str">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,E$5))</f>
-        <v>Mode extérieur</v>
+        <v>Navigation Avancée</v>
       </c>
       <c r="F26" s="48">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,F$5))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="66">
         <f ca="1">IF($B26="","",INDEX(Backlog!$A:$M,$A26,G$5))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -45994,7 +45990,7 @@
       <c r="BZ26" s="84"/>
       <c r="CA26" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="CB26" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46002,45 +45998,45 @@
       </c>
       <c r="CC26" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$79:$F$151</v>
+        <v>Backlog!$F$92:$F$151</v>
       </c>
       <c r="CD26" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CE26" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:83">
       <c r="A27" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B27" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A27),INDEX(Backlog!$A:$M,$A27,B$5),"")</f>
-        <v>6.1.7</v>
+        <v>8.1.2</v>
       </c>
       <c r="C27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,C$5))</f>
-        <v>Android</v>
+        <v>Contrôle &amp; Tests</v>
       </c>
       <c r="D27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,D$5))</f>
-        <v>Capteurs</v>
+        <v>Retours sur itération précédente</v>
       </c>
       <c r="E27" s="73" t="str">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,E$5))</f>
-        <v>Lire un Ibeacon</v>
+        <v>Retours sur itération 2</v>
       </c>
       <c r="F27" s="48">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,F$5))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27" s="66">
         <f ca="1">IF($B27="","",INDEX(Backlog!$A:$M,$A27,G$5))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -46115,7 +46111,7 @@
       <c r="BZ27" s="84"/>
       <c r="CA27" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="CB27" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46123,37 +46119,37 @@
       </c>
       <c r="CC27" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$80:$F$151</v>
+        <v>Backlog!$F$114:$F$151</v>
       </c>
       <c r="CD27" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CE27" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:83">
       <c r="A28" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B28" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A28),INDEX(Backlog!$A:$M,$A28,B$5),"")</f>
-        <v>6.3.5</v>
+        <v>8.2.3</v>
       </c>
       <c r="C28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,C$5))</f>
-        <v>Android</v>
+        <v>Contrôle &amp; Tests</v>
       </c>
       <c r="D28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,D$5))</f>
-        <v>IHM</v>
+        <v>Tests Fonctionnels</v>
       </c>
       <c r="E28" s="73" t="str">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,E$5))</f>
-        <v>Navigation Avancée</v>
+        <v>Tests Fonctionnels itération 3</v>
       </c>
       <c r="F28" s="48">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,F$5))</f>
@@ -46161,7 +46157,7 @@
       </c>
       <c r="G28" s="66">
         <f ca="1">IF($B28="","",INDEX(Backlog!$A:$M,$A28,G$5))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -46236,7 +46232,7 @@
       <c r="BZ28" s="84"/>
       <c r="CA28" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="CB28" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46244,25 +46240,25 @@
       </c>
       <c r="CC28" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$92:$F$151</v>
+        <v>Backlog!$F$120:$F$151</v>
       </c>
       <c r="CD28" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="CE28" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:83">
       <c r="A29" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B29" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A29),INDEX(Backlog!$A:$M,$A29,B$5),"")</f>
-        <v>8.1.2</v>
+        <v>8.3.3</v>
       </c>
       <c r="C29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,C$5))</f>
@@ -46270,19 +46266,19 @@
       </c>
       <c r="D29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,D$5))</f>
-        <v>Retours sur itération précédente</v>
+        <v>Livraison &amp; Packaging</v>
       </c>
       <c r="E29" s="73" t="str">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,E$5))</f>
-        <v>Retours sur itération 2</v>
+        <v>Livraison &amp; Packaging itération 3</v>
       </c>
       <c r="F29" s="48">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,F$5))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="66">
         <f ca="1">IF($B29="","",INDEX(Backlog!$A:$M,$A29,G$5))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -46357,7 +46353,7 @@
       <c r="BZ29" s="84"/>
       <c r="CA29" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="CB29" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46365,45 +46361,45 @@
       </c>
       <c r="CC29" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$114:$F$151</v>
+        <v>Backlog!$F$125:$F$151</v>
       </c>
       <c r="CD29" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="CE29" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:83">
       <c r="A30" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B30" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A30),INDEX(Backlog!$A:$M,$A30,B$5),"")</f>
-        <v>8.2.3</v>
+        <v>9.1.4</v>
       </c>
       <c r="C30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,C$5))</f>
-        <v>Contrôle &amp; Tests</v>
+        <v>Conception &amp; Spec</v>
       </c>
       <c r="D30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,D$5))</f>
-        <v>Tests Fonctionnels</v>
+        <v>Conception</v>
       </c>
       <c r="E30" s="73" t="str">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,E$5))</f>
-        <v>Tests Fonctionnels itération 3</v>
+        <v>Conception pré-itération 4</v>
       </c>
       <c r="F30" s="48">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,F$5))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="66">
         <f ca="1">IF($B30="","",INDEX(Backlog!$A:$M,$A30,G$5))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -46478,7 +46474,7 @@
       <c r="BZ30" s="84"/>
       <c r="CA30" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="CB30" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46486,7 +46482,7 @@
       </c>
       <c r="CC30" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$120:$F$151</v>
+        <v>Backlog!$F$131:$F$151</v>
       </c>
       <c r="CD30" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -46494,37 +46490,37 @@
       </c>
       <c r="CE30" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:83">
       <c r="A31" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B31" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A31),INDEX(Backlog!$A:$M,$A31,B$5),"")</f>
-        <v>8.3.3</v>
+        <v>9.2.4</v>
       </c>
       <c r="C31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,C$5))</f>
-        <v>Contrôle &amp; Tests</v>
+        <v>Conception &amp; Spec</v>
       </c>
       <c r="D31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,D$5))</f>
-        <v>Livraison &amp; Packaging</v>
+        <v>Spécification</v>
       </c>
       <c r="E31" s="73" t="str">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,E$5))</f>
-        <v>Livraison &amp; Packaging itération 3</v>
+        <v>Spécification pré-itération 4</v>
       </c>
       <c r="F31" s="48">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,F$5))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="66">
         <f ca="1">IF($B31="","",INDEX(Backlog!$A:$M,$A31,G$5))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -46599,7 +46595,7 @@
       <c r="BZ31" s="84"/>
       <c r="CA31" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="CB31" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46607,7 +46603,7 @@
       </c>
       <c r="CC31" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$125:$F$151</v>
+        <v>Backlog!$F$136:$F$151</v>
       </c>
       <c r="CD31" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -46615,29 +46611,29 @@
       </c>
       <c r="CE31" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:83">
       <c r="A32" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B32" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A32),INDEX(Backlog!$A:$M,$A32,B$5),"")</f>
-        <v>9.1.4</v>
+        <v>10.1.3</v>
       </c>
       <c r="C32" s="73" t="str">
         <f ca="1">IF($B32="","",INDEX(Backlog!$A:$M,$A32,C$5))</f>
-        <v>Conception &amp; Spec</v>
+        <v>Gestion de projet</v>
       </c>
       <c r="D32" s="73" t="str">
         <f ca="1">IF($B32="","",INDEX(Backlog!$A:$M,$A32,D$5))</f>
-        <v>Conception</v>
+        <v>Réunions</v>
       </c>
       <c r="E32" s="73" t="str">
         <f ca="1">IF($B32="","",INDEX(Backlog!$A:$M,$A32,E$5))</f>
-        <v>Conception pré-itération 4</v>
+        <v>Réunions itération 3</v>
       </c>
       <c r="F32" s="48">
         <f ca="1">IF($B32="","",INDEX(Backlog!$A:$M,$A32,F$5))</f>
@@ -46645,7 +46641,7 @@
       </c>
       <c r="G32" s="66">
         <f ca="1">IF($B32="","",INDEX(Backlog!$A:$M,$A32,G$5))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -46720,7 +46716,7 @@
       <c r="BZ32" s="84"/>
       <c r="CA32" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="CB32" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46728,37 +46724,37 @@
       </c>
       <c r="CC32" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$131:$F$151</v>
+        <v>Backlog!$F$140:$F$151</v>
       </c>
       <c r="CD32" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CE32" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:83">
       <c r="A33" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B33" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A33),INDEX(Backlog!$A:$M,$A33,B$5),"")</f>
-        <v>9.2.4</v>
+        <v>10.2.3</v>
       </c>
       <c r="C33" s="73" t="str">
         <f ca="1">IF($B33="","",INDEX(Backlog!$A:$M,$A33,C$5))</f>
-        <v>Conception &amp; Spec</v>
+        <v>Gestion de projet</v>
       </c>
       <c r="D33" s="73" t="str">
         <f ca="1">IF($B33="","",INDEX(Backlog!$A:$M,$A33,D$5))</f>
-        <v>Spécification</v>
+        <v>Backlog</v>
       </c>
       <c r="E33" s="73" t="str">
         <f ca="1">IF($B33="","",INDEX(Backlog!$A:$M,$A33,E$5))</f>
-        <v>Spécification pré-itération 4</v>
+        <v>Mise à jour Backlog itération 3</v>
       </c>
       <c r="F33" s="48">
         <f ca="1">IF($B33="","",INDEX(Backlog!$A:$M,$A33,F$5))</f>
@@ -46766,7 +46762,7 @@
       </c>
       <c r="G33" s="66">
         <f ca="1">IF($B33="","",INDEX(Backlog!$A:$M,$A33,G$5))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -46841,7 +46837,7 @@
       <c r="BZ33" s="84"/>
       <c r="CA33" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="CB33" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46849,7 +46845,7 @@
       </c>
       <c r="CC33" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$136:$F$151</v>
+        <v>Backlog!$F$145:$F$151</v>
       </c>
       <c r="CD33" s="21">
         <f t="shared" ca="1" si="9"/>
@@ -46857,29 +46853,29 @@
       </c>
       <c r="CE33" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:83">
       <c r="A34" s="90">
         <f t="shared" ca="1" si="10"/>
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B34" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A34),INDEX(Backlog!$A:$M,$A34,B$5),"")</f>
-        <v>10.1.3</v>
+        <v>11.1.3</v>
       </c>
       <c r="C34" s="73" t="str">
         <f ca="1">IF($B34="","",INDEX(Backlog!$A:$M,$A34,C$5))</f>
-        <v>Gestion de projet</v>
+        <v>Documentation</v>
       </c>
       <c r="D34" s="73" t="str">
         <f ca="1">IF($B34="","",INDEX(Backlog!$A:$M,$A34,D$5))</f>
-        <v>Réunions</v>
+        <v>Documentation</v>
       </c>
       <c r="E34" s="73" t="str">
         <f ca="1">IF($B34="","",INDEX(Backlog!$A:$M,$A34,E$5))</f>
-        <v>Réunions itération 3</v>
+        <v>Documentation itération 3</v>
       </c>
       <c r="F34" s="48">
         <f ca="1">IF($B34="","",INDEX(Backlog!$A:$M,$A34,F$5))</f>
@@ -46887,7 +46883,7 @@
       </c>
       <c r="G34" s="66">
         <f ca="1">IF($B34="","",INDEX(Backlog!$A:$M,$A34,G$5))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -46962,7 +46958,7 @@
       <c r="BZ34" s="84"/>
       <c r="CA34" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="CB34" s="21">
         <f t="shared" ca="1" si="7"/>
@@ -46970,45 +46966,45 @@
       </c>
       <c r="CC34" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$140:$F$151</v>
+        <v>Backlog!$F$150:$F$151</v>
       </c>
       <c r="CD34" s="21">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE34" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:83">
-      <c r="A35" s="90">
+      <c r="A35" s="90" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>144</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A35),INDEX(Backlog!$A:$M,$A35,B$5),"")</f>
-        <v>10.2.3</v>
+        <v/>
       </c>
       <c r="C35" s="73" t="str">
         <f ca="1">IF($B35="","",INDEX(Backlog!$A:$M,$A35,C$5))</f>
-        <v>Gestion de projet</v>
+        <v/>
       </c>
       <c r="D35" s="73" t="str">
         <f ca="1">IF($B35="","",INDEX(Backlog!$A:$M,$A35,D$5))</f>
-        <v>Backlog</v>
+        <v/>
       </c>
       <c r="E35" s="73" t="str">
         <f ca="1">IF($B35="","",INDEX(Backlog!$A:$M,$A35,E$5))</f>
-        <v>Mise à jour Backlog itération 3</v>
-      </c>
-      <c r="F35" s="48">
+        <v/>
+      </c>
+      <c r="F35" s="48" t="str">
         <f ca="1">IF($B35="","",INDEX(Backlog!$A:$M,$A35,F$5))</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="66">
+        <v/>
+      </c>
+      <c r="G35" s="66" t="str">
         <f ca="1">IF($B35="","",INDEX(Backlog!$A:$M,$A35,G$5))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -47081,55 +47077,55 @@
       <c r="BX35" s="26"/>
       <c r="BY35" s="26"/>
       <c r="BZ35" s="84"/>
-      <c r="CA35" s="21">
+      <c r="CA35" s="21" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>145</v>
-      </c>
-      <c r="CB35" s="21">
+        <v/>
+      </c>
+      <c r="CB35" s="21" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>151</v>
-      </c>
-      <c r="CC35" s="21" t="str">
+        <v/>
+      </c>
+      <c r="CC35" s="21" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$145:$F$151</v>
-      </c>
-      <c r="CD35" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD35" s="21" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="CE35" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="CE35" s="21" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>145</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:83">
-      <c r="A36" s="90">
+      <c r="A36" s="90" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>149</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B36" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A36),INDEX(Backlog!$A:$M,$A36,B$5),"")</f>
-        <v>11.1.3</v>
+        <v/>
       </c>
       <c r="C36" s="73" t="str">
         <f ca="1">IF($B36="","",INDEX(Backlog!$A:$M,$A36,C$5))</f>
-        <v>Documentation</v>
+        <v/>
       </c>
       <c r="D36" s="73" t="str">
         <f ca="1">IF($B36="","",INDEX(Backlog!$A:$M,$A36,D$5))</f>
-        <v>Documentation</v>
+        <v/>
       </c>
       <c r="E36" s="73" t="str">
         <f ca="1">IF($B36="","",INDEX(Backlog!$A:$M,$A36,E$5))</f>
-        <v>Documentation itération 3</v>
-      </c>
-      <c r="F36" s="48">
+        <v/>
+      </c>
+      <c r="F36" s="48" t="str">
         <f ca="1">IF($B36="","",INDEX(Backlog!$A:$M,$A36,F$5))</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="66">
+        <v/>
+      </c>
+      <c r="G36" s="66" t="str">
         <f ca="1">IF($B36="","",INDEX(Backlog!$A:$M,$A36,G$5))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -47202,25 +47198,25 @@
       <c r="BX36" s="26"/>
       <c r="BY36" s="26"/>
       <c r="BZ36" s="84"/>
-      <c r="CA36" s="21">
+      <c r="CA36" s="21" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="CB36" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CB36" s="21" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>151</v>
-      </c>
-      <c r="CC36" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CC36" s="21" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>Backlog!$F$150:$F$151</v>
-      </c>
-      <c r="CD36" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CD36" s="21" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="CE36" s="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CE36" s="21" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:83">
@@ -47323,13 +47319,13 @@
       <c r="BX37" s="26"/>
       <c r="BY37" s="26"/>
       <c r="BZ37" s="84"/>
-      <c r="CA37" s="21" t="str">
+      <c r="CA37" s="21" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="CB37" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CB37" s="21" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="CC37" s="21" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -47337,11 +47333,11 @@
       </c>
       <c r="CD37" s="21" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CE37" s="21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="CE37" s="21" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:83">

--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Modifications de l'ordre du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -21178,10 +21181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21781,9 +21784,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="4:5">
       <c r="E41" s="158" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -1980,6 +1980,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1993,18 +2001,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -2040,6 +2036,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2170,93 +2170,7 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Sortie" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -3111,11 +3025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="158416808"/>
-        <c:axId val="158417192"/>
+        <c:axId val="181723432"/>
+        <c:axId val="181723816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158416808"/>
+        <c:axId val="181723432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3056,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158417192"/>
+        <c:crossAx val="181723816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3150,7 +3064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158417192"/>
+        <c:axId val="181723816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3097,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158416808"/>
+        <c:crossAx val="181723432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3597,11 +3511,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="196027424"/>
-        <c:axId val="158185232"/>
+        <c:axId val="188299712"/>
+        <c:axId val="188434280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="196027424"/>
+        <c:axId val="188299712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,14 +3542,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158185232"/>
+        <c:crossAx val="188434280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158185232"/>
+        <c:axId val="188434280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3582,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196027424"/>
+        <c:crossAx val="188299712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4063,11 +3977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="196231952"/>
-        <c:axId val="196942872"/>
+        <c:axId val="188356512"/>
+        <c:axId val="181920032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="196231952"/>
+        <c:axId val="188356512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,14 +4008,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196942872"/>
+        <c:crossAx val="181920032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196942872"/>
+        <c:axId val="181920032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4134,7 +4048,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196231952"/>
+        <c:crossAx val="188356512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4611,11 +4525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="156877672"/>
-        <c:axId val="196705984"/>
+        <c:axId val="188287480"/>
+        <c:axId val="188712536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156877672"/>
+        <c:axId val="188287480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,14 +4556,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196705984"/>
+        <c:crossAx val="188712536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196705984"/>
+        <c:axId val="188712536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,7 +4596,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156877672"/>
+        <c:crossAx val="188287480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5159,11 +5073,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="196372120"/>
-        <c:axId val="196417544"/>
+        <c:axId val="189578328"/>
+        <c:axId val="189080824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="196372120"/>
+        <c:axId val="189578328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,14 +5104,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196417544"/>
+        <c:crossAx val="189080824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196417544"/>
+        <c:axId val="189080824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,7 +5144,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196372120"/>
+        <c:crossAx val="189578328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5334,14 +5248,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5864,17 +5778,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5883,15 +5797,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5900,15 +5814,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5983,55 +5897,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="170"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="169"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="173"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="176"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -6053,349 +5967,349 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
-      <c r="C14" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177" t="s">
+      <c r="C14" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177" t="s">
+      <c r="I14" s="176"/>
+      <c r="J14" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
-      <c r="C15" s="161">
+      <c r="C15" s="163">
         <v>41736</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="160" t="s">
+      <c r="D15" s="164"/>
+      <c r="E15" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160" t="s">
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="163" t="s">
+      <c r="I15" s="162"/>
+      <c r="J15" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
-      <c r="C16" s="161">
+      <c r="C16" s="163">
         <v>41781</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="160" t="s">
+      <c r="D16" s="164"/>
+      <c r="E16" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160" t="s">
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="163" t="s">
+      <c r="I16" s="162"/>
+      <c r="J16" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6419,38 +6333,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E3:M5"/>
+    <mergeCell ref="C10:O12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:O14"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:I24"/>
@@ -6467,39 +6379,41 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E3:M5"/>
-    <mergeCell ref="C10:O12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8045,7 +7959,7 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
@@ -12740,33 +12654,33 @@
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:BZ42">
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND(MOD(ROW(),2)=0,H$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A42">
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G42">
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ42 H3:BZ4">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>OR(WEEKDAY(H$3,2)=1,WEEKDAY(H$3,2)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>H$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12969,7 +12883,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D27">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21167,13 +21081,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="IK3:IV4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="EJ3:EX4"/>
+    <mergeCell ref="BM3:CA4"/>
+    <mergeCell ref="CB3:CP4"/>
+    <mergeCell ref="CQ3:DE4"/>
+    <mergeCell ref="DF3:DT4"/>
+    <mergeCell ref="DU3:EI4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -21183,74 +21096,75 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:D4"/>
-    <mergeCell ref="EJ3:EX4"/>
-    <mergeCell ref="BM3:CA4"/>
-    <mergeCell ref="CB3:CP4"/>
-    <mergeCell ref="CQ3:DE4"/>
-    <mergeCell ref="DF3:DT4"/>
-    <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="IK3:IV4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="HG3:HU4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:IV6 AQ7:AQ8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
-    <cfRule type="expression" dxfId="24" priority="143">
+    <cfRule type="expression" dxfId="15" priority="143">
       <formula>WEEKDAY(E$5,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="165">
+    <cfRule type="expression" dxfId="14" priority="165">
       <formula>E$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="166">
+    <cfRule type="expression" dxfId="13" priority="166">
       <formula>E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:IV12 F11:BG12 E17:IV17 E10:AH17 E13:IV14 E14:IV16 F16:BG17 AI7:IV17 E7:IV11">
-    <cfRule type="expression" dxfId="21" priority="142">
+    <cfRule type="expression" dxfId="12" priority="142">
       <formula>WEEKDAY(E$5,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="156">
+    <cfRule type="expression" dxfId="11" priority="156">
       <formula>E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="158">
+    <cfRule type="expression" dxfId="10" priority="158">
       <formula>AND(MOD(ROW(),2)=0,E$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:IV12 F11:BG12 E17:IV17 E10:AH17 E13:IV14 E14:IV16 F16:BG17 AI7:IV17 E7:IV11">
-    <cfRule type="expression" dxfId="18" priority="157">
+    <cfRule type="expression" dxfId="9" priority="157">
       <formula>E$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7:AQ8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
-    <cfRule type="expression" dxfId="17" priority="141">
+    <cfRule type="expression" dxfId="8" priority="141">
       <formula>AND(MOD(ROW(),2)=0,N$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ13 AV13 BA13 BF13 BK13 BP13 BU13 BZ13 CE13 CJ13 CO13 CT13 CY13 DD13 DI13 DN13 DS13 DX13 FG13 GZ13 HE13 HJ13 HO13 HT13 HY13 ID13 II13 IN13 IS13 EK13 CC13 DL13 N13 EC13 EH13 EM13 ER13 EW13 FB13 FL13 FQ13 FV13 GA13 GF13 GK13 GP13 GU13">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>WEEKDAY(N$5,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>N$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>N$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ13 AV13 BA13 BF13 BK13 BP13 BU13 BZ13 CE13 CJ13 CO13 CT13 CY13 DD13 DI13 DN13 DS13 DX13 FG13 GZ13 HE13 HJ13 HO13 HT13 HY13 ID13 II13 IN13 IS13 EK13 CC13 DL13 N13 EC13 EH13 EM13 ER13 EW13 FB13 FL13 FQ13 FV13 GA13 GF13 GK13 GP13 GU13">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(MOD(ROW(),2)=0,N$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7 AV7 BA7 BF7 BK7 BP7 BU7 BZ7 FG7 GZ7 HE7 HJ7 HO7 HT7 HY7 ID7 II7 IN7 IS7 CC7 N7 FB7 FL7 FQ7 FV7 GA7 GF7 GK7 GP7 GU7 CE7:CF7 CI7:CJ7 CL7 CO7 CR7 CT7:CU7 CX7:CY7 DA7 DD7:DE7 DG7:DI7 EG7:EK7 DK7:DL7 EM7:EN7 DN7 EP7 DQ7 ER7:ES7 DS7:DT7 DV7:DX7 EV7:EX7 DZ7:EA7 EC7">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>WEEKDAY(N$5,2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>N$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>N$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7 AV7 BA7 BF7 BK7 BP7 BU7 BZ7 FG7 GZ7 HE7 HJ7 HO7 HT7 HY7 ID7 II7 IN7 IS7 CC7 N7 FB7 FL7 FQ7 FV7 GA7 GF7 GK7 GP7 GU7 CE7:CF7 CI7:CJ7 CL7 CO7 CR7 CT7:CU7 CX7:CY7 DA7 DD7:DE7 DG7:DI7 EG7:EK7 DK7:DL7 EM7:EN7 DN7 EP7 DQ7 ER7:ES7 DS7:DT7 DV7:DX7 EV7:EX7 DZ7:EA7 EC7">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(MOD(ROW(),2)=0,N$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21897,12 +21811,12 @@
     <mergeCell ref="D23:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:J11">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="77" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11 I7:I11">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="76" priority="4">
       <formula>$H7&gt;$I7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21920,9 +21834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21983,7 +21897,7 @@
       <c r="M3" s="204"/>
       <c r="N3" s="204"/>
     </row>
-    <row r="5" spans="1:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="53" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
@@ -28808,104 +28722,104 @@
     <mergeCell ref="E1:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E1 E4:E65550">
-    <cfRule type="expression" dxfId="84" priority="28">
+    <cfRule type="expression" dxfId="75" priority="28">
       <formula>ISERR(FIND("?",$E1,1))=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:N19 J18:N18 K20:N20 J19:J21 E68:N68 J69 J71 L69:N98 K100:N101 J102:N110 J99:N99 E153:H155 L56:N67 E74:G98 E113:E152 J6:J15 L6:N17 K8:K15 E39:N55 E69:I73 L111:N155 E99:H112 I99:I110 E56:J67 E6:I38 J21:N38">
-    <cfRule type="expression" dxfId="83" priority="29">
+    <cfRule type="expression" dxfId="74" priority="29">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60:M61">
-    <cfRule type="expression" dxfId="82" priority="25">
+    <cfRule type="expression" dxfId="73" priority="25">
       <formula>AND(#REF!=#REF!,#REF!=#REF!,#REF!=#REF!,#REF!=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60:M61">
-    <cfRule type="expression" dxfId="81" priority="24">
+    <cfRule type="expression" dxfId="72" priority="24">
       <formula>AND(#REF!=#REF!,#REF!=#REF!,#REF!=#REF!,#REF!=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="80" priority="20">
+    <cfRule type="expression" dxfId="71" priority="20">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:K17 K16">
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="78" priority="17">
+    <cfRule type="expression" dxfId="69" priority="17">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:K65">
-    <cfRule type="expression" dxfId="77" priority="16">
+    <cfRule type="expression" dxfId="68" priority="16">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:K67">
-    <cfRule type="expression" dxfId="76" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="75" priority="14">
+    <cfRule type="expression" dxfId="66" priority="14">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:K73">
-    <cfRule type="expression" dxfId="74" priority="13">
+    <cfRule type="expression" dxfId="65" priority="13">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:K98">
-    <cfRule type="expression" dxfId="73" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113:K157">
-    <cfRule type="expression" dxfId="72" priority="10">
+    <cfRule type="expression" dxfId="63" priority="10">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:H152">
-    <cfRule type="expression" dxfId="71" priority="9">
+    <cfRule type="expression" dxfId="62" priority="9">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H98">
-    <cfRule type="expression" dxfId="70" priority="8">
+    <cfRule type="expression" dxfId="61" priority="8">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:K112">
-    <cfRule type="expression" dxfId="69" priority="7">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I112">
-    <cfRule type="expression" dxfId="68" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>MOD(ROW(),2)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30829,7 +30743,7 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
@@ -35559,43 +35473,43 @@
     <mergeCell ref="K44:L44"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:BZ42">
-    <cfRule type="expression" dxfId="62" priority="12">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>AND(MOD(ROW(),2)=0,H$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A42">
-    <cfRule type="expression" dxfId="61" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G42">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:BZ4 H6:BZ42">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="50" priority="3">
       <formula>OR(WEEKDAY(H$3,2)=1,WEEKDAY(H$3,2)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>H$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="6">
+    <cfRule type="expression" dxfId="48" priority="6">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G29">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G29">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37141,7 +37055,7 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
@@ -41836,33 +41750,33 @@
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:BZ42">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>AND(MOD(ROW(),2)=0,H$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A42">
-    <cfRule type="expression" dxfId="52" priority="6">
+    <cfRule type="expression" dxfId="43" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G42">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ42 H3:BZ4">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>OR(WEEKDAY(H$3,2)=1,WEEKDAY(H$3,2)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>H$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43408,7 +43322,7 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
@@ -48103,33 +48017,33 @@
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:BZ42">
-    <cfRule type="expression" dxfId="46" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>AND(MOD(ROW(),2)=0,H$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A42">
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G42">
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ42 H3:BZ4">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>OR(WEEKDAY(H$3,2)=1,WEEKDAY(H$3,2)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>H$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49675,7 +49589,7 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
@@ -54370,33 +54284,33 @@
     <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:BZ42">
-    <cfRule type="expression" dxfId="39" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>AND(MOD(ROW(),2)=0,H$2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A42">
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G42">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ42 H3:BZ4">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>OR(WEEKDAY(H$3,2)=1,WEEKDAY(H$3,2)=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>H$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>H$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/2014/AconitBacklogV2.xlsx
+++ b/doc/2014/AconitBacklogV2.xlsx
@@ -716,9 +716,6 @@
     <t>Intégration API Post</t>
   </si>
   <si>
-    <t xml:space="preserve">Contribution </t>
-  </si>
-  <si>
     <t>Ajout de vidéo Youtube</t>
   </si>
   <si>
@@ -816,6 +813,9 @@
   </si>
   <si>
     <t>Android Contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctions </t>
   </si>
 </sst>
 </file>
@@ -5884,7 +5884,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="166" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" s="166"/>
       <c r="G3" s="166"/>
@@ -6127,16 +6127,16 @@
       </c>
       <c r="D16" s="164"/>
       <c r="E16" s="162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F16" s="162"/>
       <c r="G16" s="162"/>
       <c r="H16" s="162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I16" s="162"/>
       <c r="J16" s="165" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K16" s="165"/>
       <c r="L16" s="165"/>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="D25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,D$5))</f>
-        <v xml:space="preserve">Contribution </v>
+        <v xml:space="preserve">Fonctions </v>
       </c>
       <c r="E25" s="73" t="str">
         <f ca="1">IF($B25="","",INDEX(Backlog!$A:$M,$A25,E$5))</f>
@@ -21767,7 +21767,7 @@
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -21811,9 +21811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="74" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -22809,7 +22809,7 @@
         <v>183</v>
       </c>
       <c r="K25" s="142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L25" s="142"/>
       <c r="M25" s="51"/>
@@ -23752,7 +23752,7 @@
         <v>90</v>
       </c>
       <c r="K46" s="142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L46" s="142"/>
       <c r="M46" s="51"/>
@@ -23797,7 +23797,7 @@
         <v>90</v>
       </c>
       <c r="K47" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L47" s="142"/>
       <c r="M47" s="51"/>
@@ -23887,7 +23887,7 @@
         <v>173</v>
       </c>
       <c r="K49" s="142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L49" s="142"/>
       <c r="M49" s="121"/>
@@ -23932,7 +23932,7 @@
         <v>173</v>
       </c>
       <c r="K50" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L50" s="142"/>
       <c r="M50" s="121"/>
@@ -24022,7 +24022,7 @@
         <v>174</v>
       </c>
       <c r="K52" s="142" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L52" s="142"/>
       <c r="M52" s="121"/>
@@ -24067,7 +24067,7 @@
         <v>174</v>
       </c>
       <c r="K53" s="142" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L53" s="142"/>
       <c r="M53" s="121"/>
@@ -24517,7 +24517,7 @@
         <v>208</v>
       </c>
       <c r="K63" s="142" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L63" s="142"/>
       <c r="M63" s="32"/>
@@ -24562,7 +24562,7 @@
         <v>208</v>
       </c>
       <c r="K64" s="142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L64" s="142"/>
       <c r="M64" s="32"/>
@@ -24607,7 +24607,7 @@
         <v>208</v>
       </c>
       <c r="K65" s="142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L65" s="142"/>
       <c r="M65" s="32"/>
@@ -24922,7 +24922,7 @@
         <v>213</v>
       </c>
       <c r="K72" s="142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L72" s="142"/>
       <c r="M72" s="32"/>
@@ -24967,7 +24967,7 @@
         <v>213</v>
       </c>
       <c r="K73" s="142" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L73" s="142"/>
       <c r="M73" s="32"/>
@@ -25867,7 +25867,7 @@
         <v>90</v>
       </c>
       <c r="K93" s="142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L93" s="142"/>
       <c r="M93" s="51"/>
@@ -25912,7 +25912,7 @@
         <v>90</v>
       </c>
       <c r="K94" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L94" s="142"/>
       <c r="M94" s="51"/>
@@ -26092,7 +26092,7 @@
         <v>71</v>
       </c>
       <c r="K98" s="142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L98" s="142"/>
       <c r="M98" s="51"/>
@@ -26131,7 +26131,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J99" s="142" t="s">
         <v>71</v>
@@ -26176,7 +26176,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J100" s="142" t="s">
         <v>71</v>
@@ -26221,13 +26221,13 @@
         <v>2</v>
       </c>
       <c r="I101" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J101" s="142" t="s">
         <v>71</v>
       </c>
       <c r="K101" s="142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L101" s="142"/>
       <c r="M101" s="51"/>
@@ -26266,20 +26266,20 @@
         <v>1</v>
       </c>
       <c r="I102" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J102" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J102" s="142" t="s">
-        <v>217</v>
-      </c>
       <c r="K102" s="142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L102" s="142"/>
       <c r="M102" s="51"/>
       <c r="N102" s="96"/>
       <c r="O102" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.1 : Android Contribution \ Contribution  \ Ajout de photo Serveur de fichier</v>
+        <v>7.2.1 : Android Contribution \ Fonctions  \ Ajout de photo Serveur de fichier</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="41" customFormat="1">
@@ -26311,20 +26311,20 @@
         <v>3</v>
       </c>
       <c r="I103" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J103" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J103" s="142" t="s">
+      <c r="K103" s="142" t="s">
         <v>217</v>
-      </c>
-      <c r="K103" s="142" t="s">
-        <v>218</v>
       </c>
       <c r="L103" s="142"/>
       <c r="M103" s="51"/>
       <c r="N103" s="96"/>
       <c r="O103" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.2 : Android Contribution \ Contribution  \ Ajout de vidéo Youtube</v>
+        <v>7.2.2 : Android Contribution \ Fonctions  \ Ajout de vidéo Youtube</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="41" customFormat="1">
@@ -26356,20 +26356,20 @@
         <v>2</v>
       </c>
       <c r="I104" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J104" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J104" s="142" t="s">
-        <v>217</v>
-      </c>
       <c r="K104" s="142" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L104" s="142"/>
       <c r="M104" s="51"/>
       <c r="N104" s="96"/>
       <c r="O104" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.3 : Android Contribution \ Contribution  \ Ajout de vidéo Daylimotion</v>
+        <v>7.2.3 : Android Contribution \ Fonctions  \ Ajout de vidéo Daylimotion</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="41" customFormat="1">
@@ -26401,20 +26401,20 @@
         <v>1</v>
       </c>
       <c r="I105" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J105" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J105" s="142" t="s">
-        <v>217</v>
-      </c>
       <c r="K105" s="142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L105" s="142"/>
       <c r="M105" s="51"/>
       <c r="N105" s="96"/>
       <c r="O105" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.4 : Android Contribution \ Contribution  \ Ajout de vidéo Serveur de fichier</v>
+        <v>7.2.4 : Android Contribution \ Fonctions  \ Ajout de vidéo Serveur de fichier</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="41" customFormat="1" ht="16" customHeight="1">
@@ -26446,20 +26446,20 @@
         <v>1</v>
       </c>
       <c r="I106" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J106" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J106" s="142" t="s">
-        <v>217</v>
-      </c>
       <c r="K106" s="142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L106" s="142"/>
       <c r="M106" s="51"/>
       <c r="N106" s="96"/>
       <c r="O106" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.5 : Android Contribution \ Contribution  \ Ajout de MP3</v>
+        <v>7.2.5 : Android Contribution \ Fonctions  \ Ajout de MP3</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="41" customFormat="1" ht="17" customHeight="1">
@@ -26491,20 +26491,20 @@
         <v>1</v>
       </c>
       <c r="I107" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="J107" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="J107" s="142" t="s">
-        <v>217</v>
-      </c>
       <c r="K107" s="142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L107" s="142"/>
       <c r="M107" s="51"/>
       <c r="N107" s="96"/>
       <c r="O107" s="41" t="str">
         <f t="shared" si="10"/>
-        <v>7.2.6 : Android Contribution \ Contribution  \ Ajout autre fichier</v>
+        <v>7.2.6 : Android Contribution \ Fonctions  \ Ajout autre fichier</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="41" customFormat="1" ht="17" customHeight="1">
@@ -26536,13 +26536,13 @@
         <v>4</v>
       </c>
       <c r="I108" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J108" s="142" t="s">
         <v>90</v>
       </c>
       <c r="K108" s="142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L108" s="142"/>
       <c r="M108" s="51"/>
@@ -26581,13 +26581,13 @@
         <v>3</v>
       </c>
       <c r="I109" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J109" s="142" t="s">
         <v>90</v>
       </c>
       <c r="K109" s="142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L109" s="142"/>
       <c r="M109" s="51"/>
@@ -26626,13 +26626,13 @@
         <v>3</v>
       </c>
       <c r="I110" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J110" s="142" t="s">
         <v>90</v>
       </c>
       <c r="K110" s="142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L110" s="142"/>
       <c r="M110" s="51"/>
@@ -26671,13 +26671,13 @@
         <v>7</v>
       </c>
       <c r="I111" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J111" s="142" t="s">
         <v>90</v>
       </c>
       <c r="K111" s="142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L111" s="142"/>
       <c r="M111" s="51"/>
@@ -26716,13 +26716,13 @@
         <v>2</v>
       </c>
       <c r="I112" s="142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J112" s="142" t="s">
         <v>90</v>
       </c>
       <c r="K112" s="142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L112" s="142"/>
       <c r="M112" s="51"/>
@@ -71193,7 +71193,7 @@
       </c>
       <c r="D18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,D$5))</f>
-        <v xml:space="preserve">Contribution </v>
+        <v xml:space="preserve">Fonctions </v>
       </c>
       <c r="E18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,E$5))</f>
@@ -71314,7 +71314,7 @@
       </c>
       <c r="D19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,D$5))</f>
-        <v xml:space="preserve">Contribution </v>
+        <v xml:space="preserve">Fonctions </v>
       </c>
       <c r="E19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,E$5))</f>
@@ -71435,7 +71435,7 @@
       </c>
       <c r="D20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,D$5))</f>
-        <v xml:space="preserve">Contribution </v>
+        <v xml:space="preserve">Fonctions </v>
       </c>
       <c r="E20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,E$5))</f>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="D21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,D$5))</f>
-        <v xml:space="preserve">Contribution </v>
+        <v xml:space="preserve">Fonctions </v>
       </c>
       <c r="E21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,E$5))</f>
